--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_129.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_129.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32859-d79204-Reviews-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>167</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Comfort-Inn-Near-Pasadena-Civic.h25083.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_129.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_129.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="597">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1707 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r587500195-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>32859</t>
+  </si>
+  <si>
+    <t>79204</t>
+  </si>
+  <si>
+    <t>587500195</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>Good Pasadena Location</t>
+  </si>
+  <si>
+    <t>The check-in was good and speedy and the room was clean and had clean furnishings albeit aged a little but in good condition.  The air conditioner did not work properly.  No matter what setting you put it on it remained the same and at times only blew warm air.The first day the breakfast eggs and sausage was cold.  When we told the attendant she microwaved ours but did nothing to heat the items in the warmer.  The second day the coffee ran out and there was no attendant so when we told the desk clerk he seemed unconcerned and did nothing that we witnessed.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r580633227-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>580633227</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t>Everything was great...until bedbugs!</t>
+  </si>
+  <si>
+    <t>Bought a Groupon for a 4-night stay here in early March and was really pleased with the location, free parking, quiet and comfortable room, and great sleep.  I didn't pay much attention to the fact that my first morning I woke up with a string of what I thought were mosquito bites along my wrist.  Upon returning home to Phoenix, the bites proliferated all over my hands, necessitating a two trips to the doctor and one to urgent care for a shot of cortisone to control the unbearable itch.  They did a biopsy (from which I now have a scar) and determined that the culprit was bedbugs.  This hell impacted mine and my partner's sleep for weeks, reduced my ability to work, and required us to have a $1450 heat treatment of our home (which worked instantly!) and throw away many of our high end linens and new Pottery Barn upholstered bed as the hitchhikers were found hiding in its headboard.  My advice to Comfort Inn is to perform heat treatment in all rooms immediately and for travelers to not only inspect their bed but not to disregard any bites they may discover while traveling.  A great trip, but an expensive lesson.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Bought a Groupon for a 4-night stay here in early March and was really pleased with the location, free parking, quiet and comfortable room, and great sleep.  I didn't pay much attention to the fact that my first morning I woke up with a string of what I thought were mosquito bites along my wrist.  Upon returning home to Phoenix, the bites proliferated all over my hands, necessitating a two trips to the doctor and one to urgent care for a shot of cortisone to control the unbearable itch.  They did a biopsy (from which I now have a scar) and determined that the culprit was bedbugs.  This hell impacted mine and my partner's sleep for weeks, reduced my ability to work, and required us to have a $1450 heat treatment of our home (which worked instantly!) and throw away many of our high end linens and new Pottery Barn upholstered bed as the hitchhikers were found hiding in its headboard.  My advice to Comfort Inn is to perform heat treatment in all rooms immediately and for travelers to not only inspect their bed but not to disregard any bites they may discover while traveling.  A great trip, but an expensive lesson.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r579918755-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>579918755</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t>Great standard hotel, upgraded since last visit</t>
+  </si>
+  <si>
+    <t>We stayed here before many years ago. It was nice to see that it's had a makeover since our last visit. This is a great place, it's not a luxury hotel by any means but it's a good location, clean and comfortable and the staff are all really nice, helpful and friendly. We stayed here twice on our visit, at the beginning and end of our holiday.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r562728583-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>562728583</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>Wedding/Vacation</t>
+  </si>
+  <si>
+    <t>I don't like to write neg. reviews but this place was bad. The plumbing backed up and several first floor toilets flooded over. the front desk staff used a small residential drain snake to clean out the main line, they had toilet paper and sewer water all over the front entrance of the hotel parking lot.. the fire alarm went of 2 times on Saturday night. There was a family in the room above us that had children jumping off of the bed and stomping all over the room, we told the front desk clerk but that did no good. The place needs some serious updating and cleaning!! Not worth staying at any price!! I sent a negative review directly to the hotel and the manager wrote back apologizing for everything. I wouldn't stay there again even if I was given a free week, and free airfare to get there!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I don't like to write neg. reviews but this place was bad. The plumbing backed up and several first floor toilets flooded over. the front desk staff used a small residential drain snake to clean out the main line, they had toilet paper and sewer water all over the front entrance of the hotel parking lot.. the fire alarm went of 2 times on Saturday night. There was a family in the room above us that had children jumping off of the bed and stomping all over the room, we told the front desk clerk but that did no good. The place needs some serious updating and cleaning!! Not worth staying at any price!! I sent a negative review directly to the hotel and the manager wrote back apologizing for everything. I wouldn't stay there again even if I was given a free week, and free airfare to get there!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r558847752-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>558847752</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>This was a great hotel for a weekend getaway to Pasadena close proximity to Vons grocery store Walgreens Subway other retail and restaurant venues Hotel provided free hot breakfast they also provide a pool and a hot tub. The room is spacious also came with refrigerator and microwave free WiFi and cable TV, room also came with an in-room safe and free parking in the front desk agent was very friendly and personable I would highly recommend this hotel to friends and family</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r551217317-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>551217317</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Great value in great location, done nicely.</t>
+  </si>
+  <si>
+    <t>Great value for the area.  Nicely updated 60s or 70s era motel.  Clean and modern decor in the rooms.  Fridge, microwave, coffee, and other convenient amenities in the rooms.  Close to cafes and the museums.  Nice and friendly staff.  Breakfast included, though the breakfast room is TINY and cramped.  Small pool and spa.  We made use of the coin-op laundry (very handy!) but they should offer laundry soap to use.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r541032255-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>541032255</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Uncomfortable bed and very noisy</t>
+  </si>
+  <si>
+    <t>Just needed a quick place to crash after a nearby wedding. I can easily be happy in a basic room, but I need the bed to be comfortable and this wasn't. Tons of street noise. The breakfast was included and was your basic cereal/yogurt/powdered eggs kind of deal. They did have a waffle iron which my daughter enjoyed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r539872268-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>539872268</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Much nicer inside than out...</t>
+  </si>
+  <si>
+    <t>... not that there was anything bad on the outside, but it looks like a generic motel, nothing special. Incredibly small pool in a weird corner of property and small parking spaces. BUT the room was actually quite nice for the price- clean, comfortable, good bed and amenities. Pretty large with sofa and desk in room and plenty of space all around. Very good stay for me traveling one night for work. Furnished more like a nicer Hampton or Ramada. Includes decent breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r536267159-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>536267159</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>True Comfort</t>
+  </si>
+  <si>
+    <t>I really enjoy staying at this hotel, which I have been staying at 3 to 4 times a year for the past 9 years.  It's clean, comfortable, and well maintained.  The staff is friendly and helpful.  Everyone I dealt with was happy to help and every staff has a smile to offer.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r526413555-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>526413555</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Clean and Not Pricey</t>
+  </si>
+  <si>
+    <t>We stayed here in September 2017 and it was a good value. The room was clean. The motel had a nice breakfast that ended at a reasonable time (10:30 on weekend). It had waffles, eggs, sausage, cereal, toast, fruit, muffins, yogurt, etc. The motel had sufficient parking, and the area was not obviously dangerous (which is saying much for LA areas). The staff seemed pleasant. My only complaint is that the toilet was old and had very little flushing power. Luckily, it didn't clog!</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r516436934-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>516436934</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>BEWARE - Misleading cancellation information</t>
+  </si>
+  <si>
+    <t>The hotel itself was OK and was convenient to where we needed to be. However their customer service is awful.  We made a reservation for this hotel via Expedia for 5 nights using a cancellable "deposit" option.  Note I did NOT choose the "non-refundable" option because I thought the stay might change.  We checked in and stayed for a night and then informed the hotel that we wanted to just stay one more night and wanted to cancel the remainder of the reservation.  We checked out the AM after the second night.  The hotel refused to refund ANY of the remaining three nights worth of fees and said it was boked via Expedia and was non-refundable for any changes (even though it was the hotel that collected the money - not Expedia).  I spent a long time on hold with Expedia trying to recitfy and pointing out the mis-leading information in the Rules and Restrictions and Policies on the itinerary.  No where did it say the hotel stay could not be changed after check-in or became non-refundable.  Instead it said that there was a one night penalty which we were willing to accept.  Expedia tried to help and called the hotel management several times but the hotel would not budge.  Expedia ended up feeling sorry for us and gave us a coupon for some of the amount we'd lost.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>The hotel itself was OK and was convenient to where we needed to be. However their customer service is awful.  We made a reservation for this hotel via Expedia for 5 nights using a cancellable "deposit" option.  Note I did NOT choose the "non-refundable" option because I thought the stay might change.  We checked in and stayed for a night and then informed the hotel that we wanted to just stay one more night and wanted to cancel the remainder of the reservation.  We checked out the AM after the second night.  The hotel refused to refund ANY of the remaining three nights worth of fees and said it was boked via Expedia and was non-refundable for any changes (even though it was the hotel that collected the money - not Expedia).  I spent a long time on hold with Expedia trying to recitfy and pointing out the mis-leading information in the Rules and Restrictions and Policies on the itinerary.  No where did it say the hotel stay could not be changed after check-in or became non-refundable.  Instead it said that there was a one night penalty which we were willing to accept.  Expedia tried to help and called the hotel management several times but the hotel would not budge.  Expedia ended up feeling sorry for us and gave us a coupon for some of the amount we'd lost.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r516229226-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>516229226</t>
+  </si>
+  <si>
+    <t>Ok for 5 days</t>
+  </si>
+  <si>
+    <t>Pros:  Has elevator, ample parking, A/C worked great, responsiveness of staff, breakfast was fine (6am to 10am), printer for boarding passesCons:  Noisy fridge, remote that controls television is used through a set top box that can only be controlled from one angle.Hotel was adequate compared the reviews that exist about others in the areas.  Rate was about $122 per night plus taxes.  Tips:  ask for room on high floor (3rd)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r497561877-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>497561877</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relaxing </t>
+  </si>
+  <si>
+    <t>Spent the weekend in a very clean up to date room. It was very relaxing and most of all very quiet. Had the continental breakfast which was included. Didn't get to use the pool or hot tub. If I had to visit LA again, I'd stay here.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r497546301-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>497546301</t>
+  </si>
+  <si>
+    <t>A great place with spacious rooms!</t>
+  </si>
+  <si>
+    <t>We chose to stay here when we visited our daughter who worked in Burbank and it was just a 20 minutes drive. We had a large room on the 3rd level. It was clean and well maintained with a couch and coffee table. The well thought of idea of installing a sliding door to hide the vanity area was charming. The king size bed and pillows were very comfortable and we enjoyed our sleep... quiet and quality. We will definitely stay here again in our future visits to LA.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r497532093-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>497532093</t>
+  </si>
+  <si>
+    <t>Good for the price</t>
+  </si>
+  <si>
+    <t>This is a motel-style facility. The room was clean, but small. Staff was very friendly and the breakfast offered hot choices. It was quiet, and safe. The outdoor pool and hot tub were small, but nice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r489275208-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>489275208</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Convenient Location, Reasonable Rate</t>
+  </si>
+  <si>
+    <t>Our room was on the ground floor next to the lobby but it was not too noisy.  It was a handicap room (which we did NOT request) and well worn.  The furniture and bathroom fixtures were showing much age and hard use.  There was a microwave, coffee maker and a fridge (it didn't seem to work well as it never got very cold even after adjusting the thermostat).  The AC unit is dated and had a noisy fan with very limited speed control.  Full blast or just blasting.  TV programming is very poor so not much entertainment choices in the room after a long day.  WiFi worked fine and the mattress was very comfortable.  The room was clean, but things were very worn out (dents in the furniture and black tape all around the closet mirror).  The front door was also poorly hung so there were huge gaps at the bottom and side which made it look insecure.  The front desk staff is friendly and very helpful which made check-in/out pleasant.  We didn't get to try the breakfast, but having one available is a great option.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Our room was on the ground floor next to the lobby but it was not too noisy.  It was a handicap room (which we did NOT request) and well worn.  The furniture and bathroom fixtures were showing much age and hard use.  There was a microwave, coffee maker and a fridge (it didn't seem to work well as it never got very cold even after adjusting the thermostat).  The AC unit is dated and had a noisy fan with very limited speed control.  Full blast or just blasting.  TV programming is very poor so not much entertainment choices in the room after a long day.  WiFi worked fine and the mattress was very comfortable.  The room was clean, but things were very worn out (dents in the furniture and black tape all around the closet mirror).  The front door was also poorly hung so there were huge gaps at the bottom and side which made it look insecure.  The front desk staff is friendly and very helpful which made check-in/out pleasant.  We didn't get to try the breakfast, but having one available is a great option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r483763272-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>483763272</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t>Nice quiet place, clean and comfortable</t>
+  </si>
+  <si>
+    <t>The room had been modernized and was clean and comfortable.  Carpet was new, good amount of space in the bathroom for cosmetics and items.  The room had a refrigerator WITH a freezer!  Coffeemaker small in the room but they always had coffee or decaf in the lobby.  Breakfast was typical but the eggs were great and the waffles of course were also terrific. Microwave also in the area.  The only complaint we had was the soap in the bathroom----horrible smelling stuff but I guess it did get us clean.  Had to go buy my own soap at the Vons across the street.  Will stay again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r467435791-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>467435791</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>This Place is a Gem!!!</t>
+  </si>
+  <si>
+    <t>Our room was clean and comfortable. It had a refrigerator and a microwave as well as a medium-sized, flat-screen TV.  It also had wifi internet service.  The breakfast buffet was ample with eggs, sausages, toast, coffee, juice, bagels, etc.The motel has an elevator that provides access to the upper floors.  Vehicle parking is more than adequate.  We found the USA Today and The Wall Street Journal in the lobby.We'll be staying here again the next time we're in Pasadena.  Plus, the price is very reasonable, compared with other motels in the area.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r449437372-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>449437372</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Standard room</t>
+  </si>
+  <si>
+    <t>Had to make a pit stop here for a business meeting.  Standard room, clean but nothing special.  Outdoor corridor not something you see too often anymore.   Pool looked nice but it was December and no chance of swimming.  The breakfast was decent, I don't eat lots of things but found a few items I could enjoy.   Staff was very friendly and helpful in finding a place for us to get a bite to eat.  Overall it was a fine place to spend a night.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r441649088-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>441649088</t>
+  </si>
+  <si>
+    <t>12/02/2016</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>This is a motel style property with room doors facing exterior.  So it can get a bit noisy with guests talking, cars moving in and out and especially the maids.  The exterior isn't very impressive but it basically looks like all the other motels along Colorado Blvd.  Once you step inside the room it's a different story.  Everything you need is available.  There's a small but very efficient frig/freezer.  There's a microwave and a coffee pot.  One sink and plenty of room to spread out your make up and amenities.  The bathroom is decent size, water pressure fine, bathroom clean.  The soaps aren't anything great but they have tiny shampoo and lotion.  Maybe just add a shower cap.  The TV remote needed batteries which I finally figured out was the reason it was difficult to change channels.  A table and chairs in corner.  Surprising amount of room.  The duvet was comfy and so were pillows.  I think the mattress was OK but could have been a bit better quality.  I didn't eat the breakfast but the staff told me it consists of eggs and meat, etc., the usual fare.  Runs until 10 during the week and 1030 on weekends.  Internet worked great. Parking is tricky if you get in too late.  Might not get a space.  I have to say overall, for the price, you get a lot for your money.  There's no extra charge for parking or internet or...This is a motel style property with room doors facing exterior.  So it can get a bit noisy with guests talking, cars moving in and out and especially the maids.  The exterior isn't very impressive but it basically looks like all the other motels along Colorado Blvd.  Once you step inside the room it's a different story.  Everything you need is available.  There's a small but very efficient frig/freezer.  There's a microwave and a coffee pot.  One sink and plenty of room to spread out your make up and amenities.  The bathroom is decent size, water pressure fine, bathroom clean.  The soaps aren't anything great but they have tiny shampoo and lotion.  Maybe just add a shower cap.  The TV remote needed batteries which I finally figured out was the reason it was difficult to change channels.  A table and chairs in corner.  Surprising amount of room.  The duvet was comfy and so were pillows.  I think the mattress was OK but could have been a bit better quality.  I didn't eat the breakfast but the staff told me it consists of eggs and meat, etc., the usual fare.  Runs until 10 during the week and 1030 on weekends.  Internet worked great. Parking is tricky if you get in too late.  Might not get a space.  I have to say overall, for the price, you get a lot for your money.  There's no extra charge for parking or internet or breakfast.  And no resort fee.  But occupancy tax is high, almost 20% so if it's $100 a night you'll add almost another $20 to the bill per nt.  That's a bit steep.  Pasadena relies heavily on tourism and they’re really gouging the tourists here.  The other thing to note about this property is its location.  The Rose Parade does NOT pass in front of this property.  It turns on Sierra Madre which is a very short walk from the motel.  So you could reserve your space on street with your chairs but you're not going to stand outside your room and see much.  Also this is very close to where the parade turns at the very end.  So if it starts at 8 I'm going to guess it will take a couple hours to get to your part of town.  Advantage here is it might be a little warmer to stand outside to see the parade.  There is an ice machine, vending machine with candy and snacks and elevator.  This building is 3 stories. Also has a  small pool with towels which is good when it gets pretty hot here in summer.  You're pretty much driving rather than walking  to restaurants and old town is at the opposite end of Colorado Blvd.  Relatively close to Pasadena City College.  I've stayed in a few different properties in this city from high to lower end.  I have to say for the price, this one is the best deal.  Has all the amenities you need without having to pay exorbitant prices.  Friendly staff.  There's nothing to do at the property so this is strictly a place to crash at the end of the day. Best bang for your buck.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>This is a motel style property with room doors facing exterior.  So it can get a bit noisy with guests talking, cars moving in and out and especially the maids.  The exterior isn't very impressive but it basically looks like all the other motels along Colorado Blvd.  Once you step inside the room it's a different story.  Everything you need is available.  There's a small but very efficient frig/freezer.  There's a microwave and a coffee pot.  One sink and plenty of room to spread out your make up and amenities.  The bathroom is decent size, water pressure fine, bathroom clean.  The soaps aren't anything great but they have tiny shampoo and lotion.  Maybe just add a shower cap.  The TV remote needed batteries which I finally figured out was the reason it was difficult to change channels.  A table and chairs in corner.  Surprising amount of room.  The duvet was comfy and so were pillows.  I think the mattress was OK but could have been a bit better quality.  I didn't eat the breakfast but the staff told me it consists of eggs and meat, etc., the usual fare.  Runs until 10 during the week and 1030 on weekends.  Internet worked great. Parking is tricky if you get in too late.  Might not get a space.  I have to say overall, for the price, you get a lot for your money.  There's no extra charge for parking or internet or...This is a motel style property with room doors facing exterior.  So it can get a bit noisy with guests talking, cars moving in and out and especially the maids.  The exterior isn't very impressive but it basically looks like all the other motels along Colorado Blvd.  Once you step inside the room it's a different story.  Everything you need is available.  There's a small but very efficient frig/freezer.  There's a microwave and a coffee pot.  One sink and plenty of room to spread out your make up and amenities.  The bathroom is decent size, water pressure fine, bathroom clean.  The soaps aren't anything great but they have tiny shampoo and lotion.  Maybe just add a shower cap.  The TV remote needed batteries which I finally figured out was the reason it was difficult to change channels.  A table and chairs in corner.  Surprising amount of room.  The duvet was comfy and so were pillows.  I think the mattress was OK but could have been a bit better quality.  I didn't eat the breakfast but the staff told me it consists of eggs and meat, etc., the usual fare.  Runs until 10 during the week and 1030 on weekends.  Internet worked great. Parking is tricky if you get in too late.  Might not get a space.  I have to say overall, for the price, you get a lot for your money.  There's no extra charge for parking or internet or breakfast.  And no resort fee.  But occupancy tax is high, almost 20% so if it's $100 a night you'll add almost another $20 to the bill per nt.  That's a bit steep.  Pasadena relies heavily on tourism and they’re really gouging the tourists here.  The other thing to note about this property is its location.  The Rose Parade does NOT pass in front of this property.  It turns on Sierra Madre which is a very short walk from the motel.  So you could reserve your space on street with your chairs but you're not going to stand outside your room and see much.  Also this is very close to where the parade turns at the very end.  So if it starts at 8 I'm going to guess it will take a couple hours to get to your part of town.  Advantage here is it might be a little warmer to stand outside to see the parade.  There is an ice machine, vending machine with candy and snacks and elevator.  This building is 3 stories. Also has a  small pool with towels which is good when it gets pretty hot here in summer.  You're pretty much driving rather than walking  to restaurants and old town is at the opposite end of Colorado Blvd.  Relatively close to Pasadena City College.  I've stayed in a few different properties in this city from high to lower end.  I have to say for the price, this one is the best deal.  Has all the amenities you need without having to pay exorbitant prices.  Friendly staff.  There's nothing to do at the property so this is strictly a place to crash at the end of the day. Best bang for your buck.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r437961984-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>437961984</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Great choice to relax very comfortably</t>
+  </si>
+  <si>
+    <t>The hotel lives up to it's name. Very comfortable, quiet, clean, friendly staff, great breakfast selection, late check-out. Centrally located,  walking distance to Walgreens, Vons, Guitar Center, restaurants, etc. It's also at the end of the Rose Parade route.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r426767574-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>426767574</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t>Very large/comfortable room great breakfast great location</t>
+  </si>
+  <si>
+    <t>We were just there because we wanted to go to a concert at The Rose and we took an Uber over. Clean room and large and bed comfortable. Air condition ice cold. There is an iron and ironing board. The water pressure was great but tended to go a little hot and cold. Breakfast was great. Hot and cold offerings and the coffee was delicious. We were able to walk across the street to a nice restaurant Plate 38, that was delicious. Microwave and fridge in room. Soft, fluffy towels. This is thankfully a non smoking hotel.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r413377691-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>413377691</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Awesome!</t>
+  </si>
+  <si>
+    <t>I stayed here because I was visiting family and was looking for a budget friendly place to stay. I am not terribly fussy as I do not spend a lot of time at the hotel and as long as it is safe and clean I'm fine with that.  What I found was such a pleasant surprise! Not only was the hotel clean and safe, the rooms were updated, very spacious and very comfortable. The pool and hot tub were an added bonus. the breakfast was adequate but I am not a big breakfast eater anyway. Staff was super nice. You do need a car to get to the local attractions but the location is very convenient....within a couple of miles of all the shops and restaurants. I found it easier to take city streets rather than follow GPS which takes you on the freeway to get downtown.......if you just go straight on Colorado blvd a couple of miles to Lake Ave, youre right downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I stayed here because I was visiting family and was looking for a budget friendly place to stay. I am not terribly fussy as I do not spend a lot of time at the hotel and as long as it is safe and clean I'm fine with that.  What I found was such a pleasant surprise! Not only was the hotel clean and safe, the rooms were updated, very spacious and very comfortable. The pool and hot tub were an added bonus. the breakfast was adequate but I am not a big breakfast eater anyway. Staff was super nice. You do need a car to get to the local attractions but the location is very convenient....within a couple of miles of all the shops and restaurants. I found it easier to take city streets rather than follow GPS which takes you on the freeway to get downtown.......if you just go straight on Colorado blvd a couple of miles to Lake Ave, youre right downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r410381097-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>410381097</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Good Motel</t>
+  </si>
+  <si>
+    <t>One of the best motels I've stayed in. Good service clean rooms. Reasonable prices. Except the slow WiFi and a bit noisy A/C great place to stay provided the location in Pasadena does not put you away from what you are looking for.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r394837136-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>394837136</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>Good value for money!</t>
+  </si>
+  <si>
+    <t>This hotel is not a five star estate, but it is very good value for money.Free Wi-Fi, free parking, free breakfast (basic, but ok) and lots of amenities in the room. Even an iron and an iron board. Spacious room.On the downside the air condition is very noisy, and you can clearly hear what's going on outside your room. Also a small small in the room, but nothing I noticed after 5 mins.Excellent budget stay! For a better breakfast I would recommend a 10 min drive to The Langham hotel.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r390697136-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>390697136</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>Very good location, right on Colorado street, 5 minutes from Cal Tech. Easy to get in and out of parking. Breakfast comparable to a Best Western. Breakfast room is a bit small (12-15 seats). Room was clean and comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r390180329-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>390180329</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Nice, good location</t>
+  </si>
+  <si>
+    <t>The Comfort Inn Pasadena is a clearly older motel, but it has been updated sufficiently over time. The property is a motel style with outside entry to the rooms and if three floors tall. The property has on site parking and is convenient to lots of shopping and restaurants in Pasadena. 
+Room:
+Nice, standard Comfort Inn room with king size bed, couch, desk/chair, TV, and bathroom. The bed was comfortable and the AC worked well. There was a mini fridge and microwave as well as coffee maker.
+ Bathroom:
+The water was hot and pressure was good. Oddly there is no towel rack, so if you want to hang your towel you have to do so over the shower rod. There used to be a towel rack, but it was removed in a previous renovation (the marks are still slightly visible). Standard shampoo, conditioner, and soap.
+Wifi:
+Fast and easy to use, but only various access points, not a unified network. This means you have to sign into a different wifi access point when you are in your room and when you are in the breakfast area. Not really a problem, just annoying.
+Breakfast:
+Good selection of waffles, cereal, yogurt, eggs, and sausage. The room that this is served in is a bit small and gets crowded on the weekend. 
+Overall:
+I would stay here again when in the Los Angeles area if I did not need to be on the...The Comfort Inn Pasadena is a clearly older motel, but it has been updated sufficiently over time. The property is a motel style with outside entry to the rooms and if three floors tall. The property has on site parking and is convenient to lots of shopping and restaurants in Pasadena. Room:Nice, standard Comfort Inn room with king size bed, couch, desk/chair, TV, and bathroom. The bed was comfortable and the AC worked well. There was a mini fridge and microwave as well as coffee maker. Bathroom:The water was hot and pressure was good. Oddly there is no towel rack, so if you want to hang your towel you have to do so over the shower rod. There used to be a towel rack, but it was removed in a previous renovation (the marks are still slightly visible). Standard shampoo, conditioner, and soap.Wifi:Fast and easy to use, but only various access points, not a unified network. This means you have to sign into a different wifi access point when you are in your room and when you are in the breakfast area. Not really a problem, just annoying.Breakfast:Good selection of waffles, cereal, yogurt, eggs, and sausage. The room that this is served in is a bit small and gets crowded on the weekend. Overall:I would stay here again when in the Los Angeles area if I did not need to be on the south side of the city.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Comfort Inn Pasadena is a clearly older motel, but it has been updated sufficiently over time. The property is a motel style with outside entry to the rooms and if three floors tall. The property has on site parking and is convenient to lots of shopping and restaurants in Pasadena. 
+Room:
+Nice, standard Comfort Inn room with king size bed, couch, desk/chair, TV, and bathroom. The bed was comfortable and the AC worked well. There was a mini fridge and microwave as well as coffee maker.
+ Bathroom:
+The water was hot and pressure was good. Oddly there is no towel rack, so if you want to hang your towel you have to do so over the shower rod. There used to be a towel rack, but it was removed in a previous renovation (the marks are still slightly visible). Standard shampoo, conditioner, and soap.
+Wifi:
+Fast and easy to use, but only various access points, not a unified network. This means you have to sign into a different wifi access point when you are in your room and when you are in the breakfast area. Not really a problem, just annoying.
+Breakfast:
+Good selection of waffles, cereal, yogurt, eggs, and sausage. The room that this is served in is a bit small and gets crowded on the weekend. 
+Overall:
+I would stay here again when in the Los Angeles area if I did not need to be on the...The Comfort Inn Pasadena is a clearly older motel, but it has been updated sufficiently over time. The property is a motel style with outside entry to the rooms and if three floors tall. The property has on site parking and is convenient to lots of shopping and restaurants in Pasadena. Room:Nice, standard Comfort Inn room with king size bed, couch, desk/chair, TV, and bathroom. The bed was comfortable and the AC worked well. There was a mini fridge and microwave as well as coffee maker. Bathroom:The water was hot and pressure was good. Oddly there is no towel rack, so if you want to hang your towel you have to do so over the shower rod. There used to be a towel rack, but it was removed in a previous renovation (the marks are still slightly visible). Standard shampoo, conditioner, and soap.Wifi:Fast and easy to use, but only various access points, not a unified network. This means you have to sign into a different wifi access point when you are in your room and when you are in the breakfast area. Not really a problem, just annoying.Breakfast:Good selection of waffles, cereal, yogurt, eggs, and sausage. The room that this is served in is a bit small and gets crowded on the weekend. Overall:I would stay here again when in the Los Angeles area if I did not need to be on the south side of the city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r385007867-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>385007867</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Most excellent accommodations</t>
+  </si>
+  <si>
+    <t>I booked a room for family members.  The staff was exceptionally nice and accommodating, the room was very clean and perfect for a short visit, the morning breakfast they provided with the room was more than expected and very good, the rate was reasonable.  I don't know what more I can say, I would definitely recommend this Comfort Inn to others visiting Pasadena.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r377330930-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>377330930</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>Good basic accommodation in Pasadena</t>
+  </si>
+  <si>
+    <t>This property needs updating.  Hot water supply not adequate; shower is too short for a person of average height; rooms are dark.  Having said that, our stay there was comfortable and the location on Colorado Blvd. puts it close to some of  Pasadena's attractions.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r375604637-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>375604637</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t>good choic</t>
+  </si>
+  <si>
+    <t>Not in the fancy part of Pasadena but a good choice anyway. Fancy part of Pasadena is not far and easily reached from here.  Staff was friendly.  Good hot breakfast.  Hotel is clean, room was comfortable and well maintained.  I'd stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r365825048-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>365825048</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>In town for son's wedding</t>
+  </si>
+  <si>
+    <t>Very clean, and great location for a family wedding.  The grounds were clean, rooms were sufficient and morning breakfast was adequate.  The pool was small the area was big enough to catch some rays and relax.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r359182312-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>359182312</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>Nice property - updated decor</t>
+  </si>
+  <si>
+    <t>We stayed two nights.  It was convenient to several things and easily accessible to I-210.  The rooms have recently been updated with stylish, modern décor. Beds were quite comfortable.  Parking is a little tight if they are full.  Breakfast was the "usual" for these types of motels. It's three story, but there is an elevator.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r356456287-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>356456287</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>If you need a tidy place to stay and don't need any frills, this is a great choice. The pool is tiny and the location isn't within walking distance to any attractions, but if you have a car it will do nicely. The rooms are actually quite nice and my room had a fridge and freezer. Staff was friendly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r341839637-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>341839637</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Great room and service</t>
+  </si>
+  <si>
+    <t>My self and 2children stayed in their 2 double beds studio for quite few days and we all liked it. The room was tastefully fitted with modern and quality  furnitures and bathroom fittings, the room is spacious and there is a dinning table with 2 chairs, very convenient for us to have a light meals just out of the in room microwave.  my friend who visited us stayed a king bed studio next to us and that room is even more spacious because of only 1 bed so there is a couch in it making the room so big. Their service were great too. I found out after I checked out that I have left my passports in the room, I was so worried for not being able to find, however they have put my heart at ease after I rang them and they kept the passports for me for few days. Recommended to everyone who needs a room in Los AngelesMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>My self and 2children stayed in their 2 double beds studio for quite few days and we all liked it. The room was tastefully fitted with modern and quality  furnitures and bathroom fittings, the room is spacious and there is a dinning table with 2 chairs, very convenient for us to have a light meals just out of the in room microwave.  my friend who visited us stayed a king bed studio next to us and that room is even more spacious because of only 1 bed so there is a couch in it making the room so big. Their service were great too. I found out after I checked out that I have left my passports in the room, I was so worried for not being able to find, however they have put my heart at ease after I rang them and they kept the passports for me for few days. Recommended to everyone who needs a room in Los AngelesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r341729332-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>341729332</t>
+  </si>
+  <si>
+    <t>The location was great.  Needs some updating.  Fresh paint we were told but very unprofessional.  Note very well cleaned</t>
+  </si>
+  <si>
+    <t>Great location.  Lots of restaurants in the area.  We went to see Rose Bowl parade floats being decorated.  Great.  And Ronald Reagan library and Richard Nixon library. Great trip. We were in Pasadena the week before the Rose Bowl so lots of fun people in town.  Breakfast room could also need  a little work but food was fine and the hostess was very friendly and helpful.  The front desk people were not very informed on the area.  That was disappointing..  But would stay here again.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r340850154-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>340850154</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>They are improving the place</t>
+  </si>
+  <si>
+    <t>We went to California for a family affair. We stayed 3 nights, the room was very comfortable, we loved the bed and how comfortable the pillows were. This hotel is been renovating the rooms, they had the smell of fresh paint, new carpets and draperies. We loved the wide bathroom sink and all the space available to place your toiletries. However, they left unfinished a lot of details in the room we stayed in, and the bathroom still needs some TLC. For example, you can find debris from the work done in the room behind the bed and night stands, also some of the trim between the bedroom and the bathroom were not finished. The mini fridge is in a tucked in a weird space next to the closet, we just think this was placed the best they could, in other words it was not thought through. Nice flat screen TV, they still have the old phones on the night stands, but it is disconnected and instead the have a nice cordless phone. The hot water in the shower was hot and suddenly cold, we could not make it flow evenly, we did not like it at all.
+The one thing we thought it was odd was in the lobby of the hotel, there were a lot of men gathering in the front, they were smoking and very loud. In general, it was a clean place and comfortable sleep. It...We went to California for a family affair. We stayed 3 nights, the room was very comfortable, we loved the bed and how comfortable the pillows were. This hotel is been renovating the rooms, they had the smell of fresh paint, new carpets and draperies. We loved the wide bathroom sink and all the space available to place your toiletries. However, they left unfinished a lot of details in the room we stayed in, and the bathroom still needs some TLC. For example, you can find debris from the work done in the room behind the bed and night stands, also some of the trim between the bedroom and the bathroom were not finished. The mini fridge is in a tucked in a weird space next to the closet, we just think this was placed the best they could, in other words it was not thought through. Nice flat screen TV, they still have the old phones on the night stands, but it is disconnected and instead the have a nice cordless phone. The hot water in the shower was hot and suddenly cold, we could not make it flow evenly, we did not like it at all.The one thing we thought it was odd was in the lobby of the hotel, there were a lot of men gathering in the front, they were smoking and very loud. In general, it was a clean place and comfortable sleep. It has a small and clean pool close to our room.MoreShow less</t>
+  </si>
+  <si>
+    <t>We went to California for a family affair. We stayed 3 nights, the room was very comfortable, we loved the bed and how comfortable the pillows were. This hotel is been renovating the rooms, they had the smell of fresh paint, new carpets and draperies. We loved the wide bathroom sink and all the space available to place your toiletries. However, they left unfinished a lot of details in the room we stayed in, and the bathroom still needs some TLC. For example, you can find debris from the work done in the room behind the bed and night stands, also some of the trim between the bedroom and the bathroom were not finished. The mini fridge is in a tucked in a weird space next to the closet, we just think this was placed the best they could, in other words it was not thought through. Nice flat screen TV, they still have the old phones on the night stands, but it is disconnected and instead the have a nice cordless phone. The hot water in the shower was hot and suddenly cold, we could not make it flow evenly, we did not like it at all.
+The one thing we thought it was odd was in the lobby of the hotel, there were a lot of men gathering in the front, they were smoking and very loud. In general, it was a clean place and comfortable sleep. It...We went to California for a family affair. We stayed 3 nights, the room was very comfortable, we loved the bed and how comfortable the pillows were. This hotel is been renovating the rooms, they had the smell of fresh paint, new carpets and draperies. We loved the wide bathroom sink and all the space available to place your toiletries. However, they left unfinished a lot of details in the room we stayed in, and the bathroom still needs some TLC. For example, you can find debris from the work done in the room behind the bed and night stands, also some of the trim between the bedroom and the bathroom were not finished. The mini fridge is in a tucked in a weird space next to the closet, we just think this was placed the best they could, in other words it was not thought through. Nice flat screen TV, they still have the old phones on the night stands, but it is disconnected and instead the have a nice cordless phone. The hot water in the shower was hot and suddenly cold, we could not make it flow evenly, we did not like it at all.The one thing we thought it was odd was in the lobby of the hotel, there were a lot of men gathering in the front, they were smoking and very loud. In general, it was a clean place and comfortable sleep. It has a small and clean pool close to our room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r329431615-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>329431615</t>
+  </si>
+  <si>
+    <t>11/27/2015</t>
+  </si>
+  <si>
+    <t>Good stay at Pasadena Comfort Inn</t>
+  </si>
+  <si>
+    <t>Nice quiet stay at the Pasadena Comfort Inn. Clean room, quiet, comfortable bed. Breakfast was the typical Comfort Inn breakfast; egg patty, sausage, cereals. Parking onsite that's free, which is nice for this area. I would stay here again if I'm ever in the area for business again.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r326184285-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>326184285</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Best Value</t>
+  </si>
+  <si>
+    <t>Clean, safe and comfortable hotel with refrigerator and microwave inside the rooms. Breakfast is good, having a car is a must.Our room was in ground floor but very quiet, its a family friendly place.Staff cheerful, welcoming and supportive. we enjoyed our stay and recommend it for our friends.The price is good compared the value recieved, a near Starbucks (2 min. walk) for better coffee.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r326121272-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>326121272</t>
+  </si>
+  <si>
+    <t>Checked in ... and immediately checked OUT!</t>
+  </si>
+  <si>
+    <t>I checked in and went to my room, and it was so bad that I immediately checked back out again. The room had a strong musty odor, as though someone  had been smoking and the management had tried to cover up the odor. The room next door was occupied by what was clearly a homeless transient (moving boxes piled literally to the ceiling, stacks of to-go-food containers) who was extremely noisy. The Wifi did not work at all. The A/C was extremely loud. The only reason I give two stars is because the desk clerk was so very cooperative with allowing me to check out with full refund. It was as though it were a routine process for him....MoreShow less</t>
+  </si>
+  <si>
+    <t>I checked in and went to my room, and it was so bad that I immediately checked back out again. The room had a strong musty odor, as though someone  had been smoking and the management had tried to cover up the odor. The room next door was occupied by what was clearly a homeless transient (moving boxes piled literally to the ceiling, stacks of to-go-food containers) who was extremely noisy. The Wifi did not work at all. The A/C was extremely loud. The only reason I give two stars is because the desk clerk was so very cooperative with allowing me to check out with full refund. It was as though it were a routine process for him....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r311429285-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>311429285</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Affordable in Pasadena</t>
+  </si>
+  <si>
+    <t>It is hard to find affordable hotels/motels in this area that are fit to stay in and this Comfort Inn is one of them!  Will recommend again and again - have made several trips to Pasadena for my consulting business and my husband and I have stayed here.  The staff is warm and friendly, as well as accomodating, the breakfast is varied and plentiful, and it is very hard to get up from these beds in the mornings! There are good, affordable restaurants nearby and it is very easy to get to from the freeway.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r310949920-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>310949920</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>One of the Best Comfort Inns!!!</t>
+  </si>
+  <si>
+    <t>We stayed 9 nights at this property September 2015. It was the 3rd time we stayed there. Its really wonderful place. Very clean rooms, new linen, comfortable beds, good size fridge with large freezer compartment, micro. clean bath. clean carpets, friendly staff, good free breakfast, nice and well appointed lobby with 02 computers for guests, free parking, easy access to freeway 210, lots of eateries and shopping and many more.We highly recommend this Motel for any and specially guests with families / kids. its safe place for us.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r309066314-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>309066314</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>Clean, Friendly, and Well-Located</t>
+  </si>
+  <si>
+    <t>Stayed here for one night over Labor Day weekend. The bed and pillows are quite comfortable, and the walls aren't thin, because we couldn't hear anything going on next door, and there were people in the rooms adjacent to ours.It's located in a good spot, so you can get anywhere in Pasadena from the Comfort Inn in not much time. Clean, and no one is pushy or has an attitude. Will definitely stay here again, if in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r306496705-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>306496705</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>Very Happy</t>
+  </si>
+  <si>
+    <t>Nice room, clean, quiet, comfortable.  Conveniently located in Pasadena.  Looks recently renovated.  Take out food and a Walgreens within walking distance.  Basic continental breakfast.  Elevator if you need it.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r306113658-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>306113658</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>I return again and again!</t>
+  </si>
+  <si>
+    <t>I have been a regular Pasadena visitor for many years. Depending on who is paying, I've stayed at the Hilton, Westin, Sheraton, the former Ritz Carlton, and a whole spate of budget places. Year after year, I settle on this Comfort Inn as the sweet spot in terms of value for cost. In recent years it has upgraded its rooms so it is now clearly nicer than most hotels in its chain, and a little more expensive, though moderate for the area. The rooms are nicely decorated, the beds are _outstanding_, fridge and microwave, the breakfast has several hot dishes, fruit, and other options. WiFi is of course free, and works well. Experienced staff. Drugstore and supermarket within 1 block. The neighborhood south has miles and miles of neighborhood streets with upscale homes, making a nice jogging route.  The motel fills up, reserve early.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been a regular Pasadena visitor for many years. Depending on who is paying, I've stayed at the Hilton, Westin, Sheraton, the former Ritz Carlton, and a whole spate of budget places. Year after year, I settle on this Comfort Inn as the sweet spot in terms of value for cost. In recent years it has upgraded its rooms so it is now clearly nicer than most hotels in its chain, and a little more expensive, though moderate for the area. The rooms are nicely decorated, the beds are _outstanding_, fridge and microwave, the breakfast has several hot dishes, fruit, and other options. WiFi is of course free, and works well. Experienced staff. Drugstore and supermarket within 1 block. The neighborhood south has miles and miles of neighborhood streets with upscale homes, making a nice jogging route.  The motel fills up, reserve early.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r297128850-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>297128850</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>Perfect hotel for a few days</t>
+  </si>
+  <si>
+    <t>perfect service, perfect bead, very clean!, good breakfast for a motel, friendly staff, recommend this motel to everyone! perfect location to enjoy the surroundings. good dining options near the hotel.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r285081890-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>285081890</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Wouldn't stay here again</t>
+  </si>
+  <si>
+    <t>I don’t know where all the high ratings came from. The check in person was really nice. Yes, the room was remodeled and the bed seemed okay. The water pressure was good (but the shower head was too low). That’s about it on the positives. The later desk person wasn’t very friendly, The room was small and still seemed old. The pool was  small, and freezing one night while being merely cold the next, the hot tub was lukewarm one night and too hot the next and the surrounding area and walls were all cement, not attractive at all.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r271693886-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>271693886</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Somewhat noisy but good value</t>
+  </si>
+  <si>
+    <t>We stayed here 2 nights while visiting Los Angeles. It is a bit far out of town but good value. The fridge in the room is very noisy and switched on every 7 minutes during the night. The noise from neighbouring rooms is audible too. The internet is bad - very intermittent on the top floor. Would work for a few minutes then disconnect totally for hours. The room was clean and breakfast was as standard in this type of hotel.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r270582906-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>270582906</t>
+  </si>
+  <si>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>We stayed in Pasadena for seven nights and enjoyed the location and freshness of our room.  Convenient to the 210 and not far fromn the 110. Recently remodeled and very clean.  Breakfast was better than average Comfort Inn fare.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r261560561-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>261560561</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>Excellent One-night stay in Pasadena!</t>
+  </si>
+  <si>
+    <t>We usually stay with my wife's parents who live in a retirement community in Pasadena. But two weekends ago we had to get a hotel room because of other family members staying at my in-laws apartment. We got a room at this Comfort Inn and had a very pleasant stay there. The three people that serviced us at check-in and check-out were very cordial and helpful. The breakfast was very good and we had plenty to eat. We highly recommend staying at this hotel!</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r258467658-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>258467658</t>
+  </si>
+  <si>
+    <t>03/08/2015</t>
+  </si>
+  <si>
+    <t>Fine, nothing special</t>
+  </si>
+  <si>
+    <t>We noticed a minor ant problem in the bathroom and the fridge had a tendency to freeze things.It was clean.  New paint, reasonably new carpet, comfortable beds.  Waffles, eggs, sausage available for breakfast.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r257495406-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>257495406</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>I only stayed one night at this place. It is in a great location, near everything. The room was clean and spacious with a very detailed guest directory showing everything in the area.  The buffet breakfast was very good. I would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r246756238-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>246756238</t>
+  </si>
+  <si>
+    <t>12/31/2014</t>
+  </si>
+  <si>
+    <t>Five night stay</t>
+  </si>
+  <si>
+    <t>Staff's friendly and accommodating. Plenty of towels. Quiet location. Good restaurants within walking distance. Von's grocery store close by. On the down side, the elevator was so slow and noisy we took the stairs. Tv channels are limited. Had a heck of a time turning on the shower. They were in the process of remodeling.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r241617557-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>241617557</t>
+  </si>
+  <si>
+    <t>11/26/2014</t>
+  </si>
+  <si>
+    <t>Very Convenient Hotel</t>
+  </si>
+  <si>
+    <t>I and my wife stayed in this hotel for 9 nights mid November 2014; its old property but well maintained. Located just near East Colorado Blvd and 5 mints to 210 Fwy. Room was clean spacious, clean and good linen; a large fridge and micro were available.Breakfast area not big but well kept, it served good complementary breakfast.Front staff was helpful and adequately friendly.We will return due to convenience.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r241350322-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>241350322</t>
+  </si>
+  <si>
+    <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>Good location, good value.</t>
+  </si>
+  <si>
+    <t>Stayed here 3 nights including Friday and Saturday. Hotel was quiet each night. Good location on main street of Pasadena, numerous stores and restaurants within a few minutes walk. Room was very well furnished and very clean. Everything worked well in the room, nice new TV with plenty of channels. Lots of pillows on a very comfortable King bed I got 3 terrific nights' sleep in. The pool and jacuzzi looked clean and inviting, didn't have time to try them out, sadly. Price I paid is fair considering the quality. Staff was wonderful. Close to Foothills Freeway. Will stay here again when in area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r218052992-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>218052992</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Nice place to stay in Pasadena</t>
+  </si>
+  <si>
+    <t>Spent one night here for business. It is old but quiet. The room was very nice. I had to run the air on full to get the room to cool down and the TV was fuzzy on some channels but I was only there for the night so it didn't bother me much. The toliet and and bath are in a separate room. The dressing area had a apt size refrig and a microwave on top. Tolietries were provided. There were enough towels for my Aunt and I too. The room has a blow dryer and an attached makeup mirror attached to the wall. It also had a iron and ironing board. The bed was firm and had soft and firm pillows so you can choose what you like. Has a desk and a table with chairs. Decorated tastefully. The breakfast I did not eat because I need to be at another hotel quiet early and I'm not much of a morning person. My Aunt, however, had breakfast and said it was really nice. Bacon, scrambled eggs, sausage, waffles, yougurt, pastries, muffins, coffee (oh, ther is a coffeemaker in the room) juices. And the hotel has a pool and jacuzzi (cozy). I didn't go in but my Aunt did. She said it was the perfect temp in the jacuzzi and the pool was nice too.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Spent one night here for business. It is old but quiet. The room was very nice. I had to run the air on full to get the room to cool down and the TV was fuzzy on some channels but I was only there for the night so it didn't bother me much. The toliet and and bath are in a separate room. The dressing area had a apt size refrig and a microwave on top. Tolietries were provided. There were enough towels for my Aunt and I too. The room has a blow dryer and an attached makeup mirror attached to the wall. It also had a iron and ironing board. The bed was firm and had soft and firm pillows so you can choose what you like. Has a desk and a table with chairs. Decorated tastefully. The breakfast I did not eat because I need to be at another hotel quiet early and I'm not much of a morning person. My Aunt, however, had breakfast and said it was really nice. Bacon, scrambled eggs, sausage, waffles, yougurt, pastries, muffins, coffee (oh, ther is a coffeemaker in the room) juices. And the hotel has a pool and jacuzzi (cozy). I didn't go in but my Aunt did. She said it was the perfect temp in the jacuzzi and the pool was nice too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r210440636-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>210440636</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>Convenient to Old Town</t>
+  </si>
+  <si>
+    <t>This is an older hotel on the outside, but the rooms were very clean and nice.  The beds were comfortable.  The shower was built for a person less than 5'4" as you had to duck your head to get your face and hair wet.  The WIFI was inadequate as it kept knocking you off.  The elevator was very slow and being only 3 floors it should have been faster.  It made a lot of noise and you wondered if it was going to open at times.  The breakfast room was very small and the people getting items from the counter had to stand sideways for other people to get by..  The breakfast was the usual scrambled eggs, sausage links and waffles.  The toaster did not work the first day and on both days they kept running out of eggs, or waffle mix or coffee.  When you told the desk about not having one of the items, the clerk response was defensive.  It then would take quite awhile before someone would come in to correct the problem.  The desk clerks indifferent attitude was displayed by the three clerks that I came in contact with or overheard talking to other customers.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>This is an older hotel on the outside, but the rooms were very clean and nice.  The beds were comfortable.  The shower was built for a person less than 5'4" as you had to duck your head to get your face and hair wet.  The WIFI was inadequate as it kept knocking you off.  The elevator was very slow and being only 3 floors it should have been faster.  It made a lot of noise and you wondered if it was going to open at times.  The breakfast room was very small and the people getting items from the counter had to stand sideways for other people to get by..  The breakfast was the usual scrambled eggs, sausage links and waffles.  The toaster did not work the first day and on both days they kept running out of eggs, or waffle mix or coffee.  When you told the desk about not having one of the items, the clerk response was defensive.  It then would take quite awhile before someone would come in to correct the problem.  The desk clerks indifferent attitude was displayed by the three clerks that I came in contact with or overheard talking to other customers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r198680010-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>198680010</t>
+  </si>
+  <si>
+    <t>03/25/2014</t>
+  </si>
+  <si>
+    <t>Good value, quiet</t>
+  </si>
+  <si>
+    <t>Just finished my third stay at this location in the last year. Lovely king sized, comfortable bed with choice of firm or soft pillows. Tiny pool and even smaller gym, but large flat screen tv, very clean and a reasonable breakfast included. Much nicer than the Vagabond, and no fee for parking like the hotels near old town.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r189663260-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>189663260</t>
+  </si>
+  <si>
+    <t>01/04/2014</t>
+  </si>
+  <si>
+    <t>Ideal for Rose Parade accommodations</t>
+  </si>
+  <si>
+    <t>This property is ideally suited for easy access to the Rose Parade (at least for the last mile).  Getting to the freeway is easy and depending on the usual traffic getting to Hollywood, LA, etc. is very convenient and about 20-30 minutes away.  Major shopping is 5-10 minutes.The room was typical "basic" Comfort Inn.  The toilet is a water conservation design that sounds like a jet engine when you flush!  Shower water pressure did fluctuate but not low enough to be a problem.  The pillows and bed were comfortable, room was clean and quiet.  The choice of TV channels was limited but WiFi was good.  The breakfast food choices were okay but the seating was REALLY cramped and inadequate in table numbers.  The property was "sold out" but I did not have any problem with parking though it does seem limited.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>This property is ideally suited for easy access to the Rose Parade (at least for the last mile).  Getting to the freeway is easy and depending on the usual traffic getting to Hollywood, LA, etc. is very convenient and about 20-30 minutes away.  Major shopping is 5-10 minutes.The room was typical "basic" Comfort Inn.  The toilet is a water conservation design that sounds like a jet engine when you flush!  Shower water pressure did fluctuate but not low enough to be a problem.  The pillows and bed were comfortable, room was clean and quiet.  The choice of TV channels was limited but WiFi was good.  The breakfast food choices were okay but the seating was REALLY cramped and inadequate in table numbers.  The property was "sold out" but I did not have any problem with parking though it does seem limited.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r187845722-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>187845722</t>
+  </si>
+  <si>
+    <t>12/16/2013</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>Fairly typical Comfort Inn.  It was quiet and clean.  We had some minor issues but they were resolved quickly.  For the price it's worth it, but don't expect much. Our room was somewhat new looking so that helped.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r186093648-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>186093648</t>
+  </si>
+  <si>
+    <t>11/27/2013</t>
+  </si>
+  <si>
+    <t>Good Value for Money spent</t>
+  </si>
+  <si>
+    <t>I and my wife stayed in this property for 07 nights during second half of November 2013 on our visit to California from Canada.The room decently appointed, clean, good linen and staff was very friendly. Check in and out supper fast. The lobby was average size but nicely kept. The free breakfast was decent too and the attendant in the B/F room was kind and friendly.Its well located near Pasadena Collage, CalTech, Huntington Library, Pasadena Old Town and Freeway 210.Also it's not too far from beautiful neighborhood like San Marino, South Pasadena, Pasadena, San Gabriel and Arcadia.Los Angeles down Town is about 15 Mile away but Metro Train Station is not far for a 10 mn walk. There were good restaurants, Pharmacies and Department stores like Target, Macy's nearby. The room's carpets needs some cleaning but not too bad.We will have no objection in returning to this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I and my wife stayed in this property for 07 nights during second half of November 2013 on our visit to California from Canada.The room decently appointed, clean, good linen and staff was very friendly. Check in and out supper fast. The lobby was average size but nicely kept. The free breakfast was decent too and the attendant in the B/F room was kind and friendly.Its well located near Pasadena Collage, CalTech, Huntington Library, Pasadena Old Town and Freeway 210.Also it's not too far from beautiful neighborhood like San Marino, South Pasadena, Pasadena, San Gabriel and Arcadia.Los Angeles down Town is about 15 Mile away but Metro Train Station is not far for a 10 mn walk. There were good restaurants, Pharmacies and Department stores like Target, Macy's nearby. The room's carpets needs some cleaning but not too bad.We will have no objection in returning to this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r165705483-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>165705483</t>
+  </si>
+  <si>
+    <t>06/29/2013</t>
+  </si>
+  <si>
+    <t>Your mileage may vary</t>
+  </si>
+  <si>
+    <t>This hotel has a low price, but showing signs that better times are behind. Stayed here on two separate occasions in May. (Reservations were made for both trips before the first visit.) The first room was a non-smoking room that had obviously been smoked in. The front desk service was kind enough to put me in another room. Having been in three rooms, I noticed that the rooms have been updated at different times with different types of furnishings. There is some consistency--every TV in the place (rooms and breakfast area) were broken. The desk and table chairs in the rooms were stained in places that one doesn't want to see stains. In one room, the shower curtain rod was broken so that the curtain sagged in the middle and water sprayed all over the floor.The included breakfast was a little more promising, although it was mostly quick-fix items with long shelf life. The front office staff was a mix--most were helpful although not all. Housekeeping was a bright spot, as the rooms were clean and the beds made crisply. Did not try the exercise room or small pool. Parking spaces are tight.This hotel has potential, but a major investment would be needed. 4 stars for the people, 1 star for the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>This hotel has a low price, but showing signs that better times are behind. Stayed here on two separate occasions in May. (Reservations were made for both trips before the first visit.) The first room was a non-smoking room that had obviously been smoked in. The front desk service was kind enough to put me in another room. Having been in three rooms, I noticed that the rooms have been updated at different times with different types of furnishings. There is some consistency--every TV in the place (rooms and breakfast area) were broken. The desk and table chairs in the rooms were stained in places that one doesn't want to see stains. In one room, the shower curtain rod was broken so that the curtain sagged in the middle and water sprayed all over the floor.The included breakfast was a little more promising, although it was mostly quick-fix items with long shelf life. The front office staff was a mix--most were helpful although not all. Housekeeping was a bright spot, as the rooms were clean and the beds made crisply. Did not try the exercise room or small pool. Parking spaces are tight.This hotel has potential, but a major investment would be needed. 4 stars for the people, 1 star for the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r160850107-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>160850107</t>
+  </si>
+  <si>
+    <t>05/15/2013</t>
+  </si>
+  <si>
+    <t>Clean, comfortable room, and quiet at night!</t>
+  </si>
+  <si>
+    <t>A very spacious room with nice comfortable bed and pillows.  They had a very nice breakfast too.  It was most clean and very quiet at night.  It is in a decent area and would feel very safe walking around in the eve. Would definitely recommend this hotel to my friends.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r159579856-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>159579856</t>
+  </si>
+  <si>
+    <t>05/03/2013</t>
+  </si>
+  <si>
+    <t>Good for the Price</t>
+  </si>
+  <si>
+    <t>Nothing fancy, but great for the price.  Situated on Colorado Blvd., it was in nice proximity to the Rose Bowl and some of the other places we were going to.  The breakfast exceeded expectations and the room was very clean and in good shape.  The room refrigerator was a plus.  The area felt safe and well-kept.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r148258958-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>148258958</t>
+  </si>
+  <si>
+    <t>12/28/2012</t>
+  </si>
+  <si>
+    <t>OK place to stay.</t>
+  </si>
+  <si>
+    <t>This place is ok to stay at. It is an older motel with the room opening onto the parking lot or acess balcony. Rooms were very clean and pleasant. They are small like older units are but nice size fridge and microwave. I stayed there 30 days on business. Parking is tight but that is Pasadena as a whole. I had two issues there. On Friday and Saturday nights the place seems to have a lot of traffic and noise, not so during the week. The other I was waiting for a package with closing papers in it and it sat somewhere in the office for 3 days before I got a message that I had a package on a Sunday night, even after I had checked on it.  So the closing was delayed and cost me extra because of it. I would probably go back, as I have stayed at a whole lot worse.  And after all it was VERY clean and the beds were comfortable. MoreShow less</t>
+  </si>
+  <si>
+    <t>This place is ok to stay at. It is an older motel with the room opening onto the parking lot or acess balcony. Rooms were very clean and pleasant. They are small like older units are but nice size fridge and microwave. I stayed there 30 days on business. Parking is tight but that is Pasadena as a whole. I had two issues there. On Friday and Saturday nights the place seems to have a lot of traffic and noise, not so during the week. The other I was waiting for a package with closing papers in it and it sat somewhere in the office for 3 days before I got a message that I had a package on a Sunday night, even after I had checked on it.  So the closing was delayed and cost me extra because of it. I would probably go back, as I have stayed at a whole lot worse.  And after all it was VERY clean and the beds were comfortable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r146266763-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>146266763</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>Rooms Updated</t>
+  </si>
+  <si>
+    <t>Here are some pictures of their newly updated rooms (as of November 2012).  The bedding and pillows are new.  The updates to all rooms are happening in waves, and to be completed soon.  Looks much better than before.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r143648458-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>143648458</t>
+  </si>
+  <si>
+    <t>10/24/2012</t>
+  </si>
+  <si>
+    <t>Comfort Inn, Pasadena</t>
+  </si>
+  <si>
+    <t>As this type of hotel goes this was comfortable, clean and had a nice panel TV. Check-in staff seemed a little distance but friendly enough. The breakfast was good and typical of this type of hotel (yogurt, cereal, breads, coffee, juices). The breakfast room was clean but VERY small.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r142523797-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>142523797</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>Time to remodel</t>
+  </si>
+  <si>
+    <t>It's hard to find affordable lodging in the Los Angeles area for less than $150 that doesn't have some challenge. The Comfort Inn is no exception. The property is a 3 story motel with a tiny unheated pool and a small lukewarm jacuzzi. There are no trees to shield the pool from the neighbors. It feel exposed.
+Our room had carpet beetles. I know these little guys because they invaded our home and are hard to get rid of, especially if you have carpets. The ones I saw were in the bathroom going from the carpet under the door to the inside of the bathroom wall. They are annoying but not icky like bedbugs.  They like dust which I found everywhere, even on the tub.  I am not sure the last time someone stayed in our room because there was a thin coating of dust on the tub and the floor had little dark specs of this and that.  I couldn't figure it out but since our unit was on the ground floor, it could have blown in from the parking lot.
+The staff person checking in was quick but not friendly, but later he told me how to unlatch the pool gate so he was helpful. I found him lounging on a sofa, using his mobile in the lobby so I thought he was a guest at first.  I was glad to see the video feed of the security...It's hard to find affordable lodging in the Los Angeles area for less than $150 that doesn't have some challenge. The Comfort Inn is no exception. The property is a 3 story motel with a tiny unheated pool and a small lukewarm jacuzzi. There are no trees to shield the pool from the neighbors. It feel exposed.Our room had carpet beetles. I know these little guys because they invaded our home and are hard to get rid of, especially if you have carpets. The ones I saw were in the bathroom going from the carpet under the door to the inside of the bathroom wall. They are annoying but not icky like bedbugs.  They like dust which I found everywhere, even on the tub.  I am not sure the last time someone stayed in our room because there was a thin coating of dust on the tub and the floor had little dark specs of this and that.  I couldn't figure it out but since our unit was on the ground floor, it could have blown in from the parking lot.The staff person checking in was quick but not friendly, but later he told me how to unlatch the pool gate so he was helpful. I found him lounging on a sofa, using his mobile in the lobby so I thought he was a guest at first.  I was glad to see the video feed of the security cameras since this spot was on a well traveled street and wasn't fenced. There was too much furniture in our room for us to easily move around.  The bed was comfortable but the rooms need remodeling.  I didn't like the dark wood and carpet and wasn't really sure how clean it all was based on what I saw in the bathroom.We never checked out the breakfast so I can't comment about it. I used to live in the area so I knew the neighborhood.  We went over to Foothill to eat and get gasoline and coffee.  There is nothing within walking distance.For one night it worked...I will pick another place next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>It's hard to find affordable lodging in the Los Angeles area for less than $150 that doesn't have some challenge. The Comfort Inn is no exception. The property is a 3 story motel with a tiny unheated pool and a small lukewarm jacuzzi. There are no trees to shield the pool from the neighbors. It feel exposed.
+Our room had carpet beetles. I know these little guys because they invaded our home and are hard to get rid of, especially if you have carpets. The ones I saw were in the bathroom going from the carpet under the door to the inside of the bathroom wall. They are annoying but not icky like bedbugs.  They like dust which I found everywhere, even on the tub.  I am not sure the last time someone stayed in our room because there was a thin coating of dust on the tub and the floor had little dark specs of this and that.  I couldn't figure it out but since our unit was on the ground floor, it could have blown in from the parking lot.
+The staff person checking in was quick but not friendly, but later he told me how to unlatch the pool gate so he was helpful. I found him lounging on a sofa, using his mobile in the lobby so I thought he was a guest at first.  I was glad to see the video feed of the security...It's hard to find affordable lodging in the Los Angeles area for less than $150 that doesn't have some challenge. The Comfort Inn is no exception. The property is a 3 story motel with a tiny unheated pool and a small lukewarm jacuzzi. There are no trees to shield the pool from the neighbors. It feel exposed.Our room had carpet beetles. I know these little guys because they invaded our home and are hard to get rid of, especially if you have carpets. The ones I saw were in the bathroom going from the carpet under the door to the inside of the bathroom wall. They are annoying but not icky like bedbugs.  They like dust which I found everywhere, even on the tub.  I am not sure the last time someone stayed in our room because there was a thin coating of dust on the tub and the floor had little dark specs of this and that.  I couldn't figure it out but since our unit was on the ground floor, it could have blown in from the parking lot.The staff person checking in was quick but not friendly, but later he told me how to unlatch the pool gate so he was helpful. I found him lounging on a sofa, using his mobile in the lobby so I thought he was a guest at first.  I was glad to see the video feed of the security cameras since this spot was on a well traveled street and wasn't fenced. There was too much furniture in our room for us to easily move around.  The bed was comfortable but the rooms need remodeling.  I didn't like the dark wood and carpet and wasn't really sure how clean it all was based on what I saw in the bathroom.We never checked out the breakfast so I can't comment about it. I used to live in the area so I knew the neighborhood.  We went over to Foothill to eat and get gasoline and coffee.  There is nothing within walking distance.For one night it worked...I will pick another place next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r127960592-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>127960592</t>
+  </si>
+  <si>
+    <t>04/15/2012</t>
+  </si>
+  <si>
+    <t>beyond expectation</t>
+  </si>
+  <si>
+    <t>read reviews before booking and came here for vacation with my family. checked out other hotels in the are before booking here and must say hotel is very kept up compare to the other hotels and is located in a beautiful area surrounded by beautiful green trees. i have stayed at other comfort inns which offer continental breakfast but this one offers the full breakfast included in the rate. rooms where large enough for me my wife and our daughter. parking lot was a little small but no problem finding parking there plenty of secure parking. was close to all the things we wanted to do. front desk was very friendly. a young man by the name of henry checked us in late at night and recommended several attractions for us to do during the week. some which where more for a younger crowd but the food was good. check out was a young lady which was very informative about the area as well and help us get around. i will definitely  be staying next time we are in town. management seems to be doing a great jobMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>read reviews before booking and came here for vacation with my family. checked out other hotels in the are before booking here and must say hotel is very kept up compare to the other hotels and is located in a beautiful area surrounded by beautiful green trees. i have stayed at other comfort inns which offer continental breakfast but this one offers the full breakfast included in the rate. rooms where large enough for me my wife and our daughter. parking lot was a little small but no problem finding parking there plenty of secure parking. was close to all the things we wanted to do. front desk was very friendly. a young man by the name of henry checked us in late at night and recommended several attractions for us to do during the week. some which where more for a younger crowd but the food was good. check out was a young lady which was very informative about the area as well and help us get around. i will definitely  be staying next time we are in town. management seems to be doing a great jobMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r127607399-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>127607399</t>
+  </si>
+  <si>
+    <t>04/10/2012</t>
+  </si>
+  <si>
+    <t>Good standard place, good value, good staff</t>
+  </si>
+  <si>
+    <t>An older property, three floors, outside corridors, elevator. Room pretty much standard Comfort Inn, but comfortable, well-equipped, completely clean. Free breakfast also standard, but fresh, eggs, bread, cereal, waffles, all the basics. Location is good, though nothing is really walking distance (including the "nearby" Civic Auditorium, and nearby dining options are virtually nonexistent (2 of 3 I checked that were mentioned on the hotel's "nearby restaurants" list were out of business). But everything worked well for me. Bonus points to the staff, who were exceptionally friendly, helpful, and efficient. I've stayed here before (which the staff seemed to know, even though it was years ago) and would choose it again. If you're visiting the Huntington Gardens or Caltech, it's very convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>An older property, three floors, outside corridors, elevator. Room pretty much standard Comfort Inn, but comfortable, well-equipped, completely clean. Free breakfast also standard, but fresh, eggs, bread, cereal, waffles, all the basics. Location is good, though nothing is really walking distance (including the "nearby" Civic Auditorium, and nearby dining options are virtually nonexistent (2 of 3 I checked that were mentioned on the hotel's "nearby restaurants" list were out of business). But everything worked well for me. Bonus points to the staff, who were exceptionally friendly, helpful, and efficient. I've stayed here before (which the staff seemed to know, even though it was years ago) and would choose it again. If you're visiting the Huntington Gardens or Caltech, it's very convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r118464746-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>118464746</t>
+  </si>
+  <si>
+    <t>09/22/2011</t>
+  </si>
+  <si>
+    <t>I liked this hotel.</t>
+  </si>
+  <si>
+    <t>I'm not usually a big fan of hotels with outdoor corridors because oftentimes they're a little run down. Not this one. The up keep on the grounds was a plus. There were flowers and trees and a freshly paved parking lot. The room was clean. The breakfast was assorted and well stocked. The guy at the front desk let me borrow his screwdriver set so I could work on my computer. One of the best parts was that it's within walking distance to all kinds of things so you don't have to schlep around looking for a bite to eat you can just walk a block or so. I'm giving this place two thumbs up. Not bad at all for an outdoor corridor hotel. It's all about the details and the management of this hotel understands that.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>I'm not usually a big fan of hotels with outdoor corridors because oftentimes they're a little run down. Not this one. The up keep on the grounds was a plus. There were flowers and trees and a freshly paved parking lot. The room was clean. The breakfast was assorted and well stocked. The guy at the front desk let me borrow his screwdriver set so I could work on my computer. One of the best parts was that it's within walking distance to all kinds of things so you don't have to schlep around looking for a bite to eat you can just walk a block or so. I'm giving this place two thumbs up. Not bad at all for an outdoor corridor hotel. It's all about the details and the management of this hotel understands that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r94804741-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>94804741</t>
+  </si>
+  <si>
+    <t>01/28/2011</t>
+  </si>
+  <si>
+    <t>I Was Very Pleased here.</t>
+  </si>
+  <si>
+    <t>I have spent 3 years out of the last 4 at this motel for a total of about 20 days.  I was completely satisfied with my room.  It was large, clean, and pleasant.  I only had one problem and that was a faulty remote control.  If I return in 2010 and stay in Pasadena I will stay here.  I was totally satisfied with it and had none of the problems I have read in the other reviews.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r86886015-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>86886015</t>
+  </si>
+  <si>
+    <t>11/12/2010</t>
+  </si>
+  <si>
+    <t>Comfort Inn Pasadena  A-OK</t>
+  </si>
+  <si>
+    <t>Needed a hotel in Pasadena for the night.  The Comfort Inn desk clerk (young man) was friendly and found me a room quick and a reasonable rate.  The room was basic.  I just needed a place to get a good nights sleep before the long drive home in the morning.  The hotel was quiet.  Room clean.  Breakfast provided was great, made waffles.  I would stay here again.  There is a good little pizza place about 2 block east.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r61370470-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>61370470</t>
+  </si>
+  <si>
+    <t>04/14/2010</t>
+  </si>
+  <si>
+    <t>credit card theft</t>
+  </si>
+  <si>
+    <t>After a fine stay there in December, charged to our Master Card, we were billed on our CC a second time for a stay in March that we did not make. We don't live in that area and haven't been there since early December. Manager (de la Cruz) stone-walled, saying that we were registered and that the charge would hold. Evidently an employee gave a friend or family member a free night at our expense; we haven't stayed anywhere else in that area. Don't care much about the loss of that money but the Credit Card now has to be replaced, which is an inconvenience, to say the least. So, reader, take care. jimboMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>After a fine stay there in December, charged to our Master Card, we were billed on our CC a second time for a stay in March that we did not make. We don't live in that area and haven't been there since early December. Manager (de la Cruz) stone-walled, saying that we were registered and that the charge would hold. Evidently an employee gave a friend or family member a free night at our expense; we haven't stayed anywhere else in that area. Don't care much about the loss of that money but the Credit Card now has to be replaced, which is an inconvenience, to say the least. So, reader, take care. jimboMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r52278414-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>52278414</t>
+  </si>
+  <si>
+    <t>12/31/2009</t>
+  </si>
+  <si>
+    <t>Bad bedding. Avoid it if you want to sleep well.</t>
+  </si>
+  <si>
+    <t>Stayed for one night with 2 adult family members and 1 child. The bed sheets and blanket were old and worn out. All 3 of us felt itchy the whole night in bed and weren't able to sleep well. The room had a fridge, a microwave and a safe. It was quiet and looked clean. We would come back again if the bedding is better and were able to at least get a good sleep without the itchiness.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r46179007-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>46179007</t>
+  </si>
+  <si>
+    <t>10/08/2009</t>
+  </si>
+  <si>
+    <t>Met my expectations</t>
+  </si>
+  <si>
+    <t>I needed to lodge somewhere safe and clean that was located within blocks of my business meeting and chose Comfort Inn Pasadena.  While there, I felt safe and the location was just right.  However, I got the sense that at times it might not be so safe at this location, since at all times, there was a security person in the motel lobby and a security mirror in the breakfast room.  For fun and exercise, I walked to Huntington Botanical Gardens, just past Pasadena City College (where there a decent eateries with outdoor seating, like Johnny Rockets).   Breakfast wasn't memorable.  Let's just say they have one.   They have a computer and printer in the lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>I needed to lodge somewhere safe and clean that was located within blocks of my business meeting and chose Comfort Inn Pasadena.  While there, I felt safe and the location was just right.  However, I got the sense that at times it might not be so safe at this location, since at all times, there was a security person in the motel lobby and a security mirror in the breakfast room.  For fun and exercise, I walked to Huntington Botanical Gardens, just past Pasadena City College (where there a decent eateries with outdoor seating, like Johnny Rockets).   Breakfast wasn't memorable.  Let's just say they have one.   They have a computer and printer in the lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r37713995-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>37713995</t>
+  </si>
+  <si>
+    <t>08/14/2009</t>
+  </si>
+  <si>
+    <t>Comfort? YES!!!</t>
+  </si>
+  <si>
+    <t>We really found this hotel very comfortable just like its name. The check-in and check out went quickly and efficiently.  We asked for a quiet non-smoking room far away from traffic and noise and we got one.  It was room 232, even though it was right next to stairway.  However, the stairway was carpeted and was inside so we didn't hear anyone walking up and down the stairs at all.  But if you get a room near the exterior stairway, then you will hear noise. The room was not big with 2 double beds, a table with 2 chairs by the window, a desk and chair, a chest of drawers, small fridge with microwave on top, small sink with good size counter top, blow dryer, coffee maker with coffee/tea, bath soap and face soap, lotion, shampoo &amp; conditioner and good towels enough for 4 people. The beds were comfy with 4 pillows per bed.  The complimentary continental breakfast was enough unless you must have meat. We stayed for 4 nights and the breakfast items were the same but then, we eat the same thing at home everyday anyway.  There were OJ, apple juice, milk(whole &amp; reduced), coffee/tea, hot chocolate, 2 kinds of cereal, bread, english muffins, ,mini croissants, small danishes, bagels, hard boiled eggs, make your own waffles, yogurt, apples and oranges. It was enough to fill us to start our day. However, the breakfast room was small with 4...We really found this hotel very comfortable just like its name. The check-in and check out went quickly and efficiently.  We asked for a quiet non-smoking room far away from traffic and noise and we got one.  It was room 232, even though it was right next to stairway.  However, the stairway was carpeted and was inside so we didn't hear anyone walking up and down the stairs at all.  But if you get a room near the exterior stairway, then you will hear noise. The room was not big with 2 double beds, a table with 2 chairs by the window, a desk and chair, a chest of drawers, small fridge with microwave on top, small sink with good size counter top, blow dryer, coffee maker with coffee/tea, bath soap and face soap, lotion, shampoo &amp; conditioner and good towels enough for 4 people. The beds were comfy with 4 pillows per bed.  The complimentary continental breakfast was enough unless you must have meat. We stayed for 4 nights and the breakfast items were the same but then, we eat the same thing at home everyday anyway.  There were OJ, apple juice, milk(whole &amp; reduced), coffee/tea, hot chocolate, 2 kinds of cereal, bread, english muffins, ,mini croissants, small danishes, bagels, hard boiled eggs, make your own waffles, yogurt, apples and oranges. It was enough to fill us to start our day. However, the breakfast room was small with 4 small tables only.  You can bring your breakfast back to your room with a tray though. Since we were there during the weekdays, we didn't have trouble finding a table but then we went in after 9 am.  Over all, we are very happy with this hotel.  It was quiet even though the parking lot was mostly filled each night. The whole place shows evidence of being well-maintained and the guests are taken care of. Thank you, Comfort Inn.  Keep up the good work.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>We really found this hotel very comfortable just like its name. The check-in and check out went quickly and efficiently.  We asked for a quiet non-smoking room far away from traffic and noise and we got one.  It was room 232, even though it was right next to stairway.  However, the stairway was carpeted and was inside so we didn't hear anyone walking up and down the stairs at all.  But if you get a room near the exterior stairway, then you will hear noise. The room was not big with 2 double beds, a table with 2 chairs by the window, a desk and chair, a chest of drawers, small fridge with microwave on top, small sink with good size counter top, blow dryer, coffee maker with coffee/tea, bath soap and face soap, lotion, shampoo &amp; conditioner and good towels enough for 4 people. The beds were comfy with 4 pillows per bed.  The complimentary continental breakfast was enough unless you must have meat. We stayed for 4 nights and the breakfast items were the same but then, we eat the same thing at home everyday anyway.  There were OJ, apple juice, milk(whole &amp; reduced), coffee/tea, hot chocolate, 2 kinds of cereal, bread, english muffins, ,mini croissants, small danishes, bagels, hard boiled eggs, make your own waffles, yogurt, apples and oranges. It was enough to fill us to start our day. However, the breakfast room was small with 4...We really found this hotel very comfortable just like its name. The check-in and check out went quickly and efficiently.  We asked for a quiet non-smoking room far away from traffic and noise and we got one.  It was room 232, even though it was right next to stairway.  However, the stairway was carpeted and was inside so we didn't hear anyone walking up and down the stairs at all.  But if you get a room near the exterior stairway, then you will hear noise. The room was not big with 2 double beds, a table with 2 chairs by the window, a desk and chair, a chest of drawers, small fridge with microwave on top, small sink with good size counter top, blow dryer, coffee maker with coffee/tea, bath soap and face soap, lotion, shampoo &amp; conditioner and good towels enough for 4 people. The beds were comfy with 4 pillows per bed.  The complimentary continental breakfast was enough unless you must have meat. We stayed for 4 nights and the breakfast items were the same but then, we eat the same thing at home everyday anyway.  There were OJ, apple juice, milk(whole &amp; reduced), coffee/tea, hot chocolate, 2 kinds of cereal, bread, english muffins, ,mini croissants, small danishes, bagels, hard boiled eggs, make your own waffles, yogurt, apples and oranges. It was enough to fill us to start our day. However, the breakfast room was small with 4 small tables only.  You can bring your breakfast back to your room with a tray though. Since we were there during the weekdays, we didn't have trouble finding a table but then we went in after 9 am.  Over all, we are very happy with this hotel.  It was quiet even though the parking lot was mostly filled each night. The whole place shows evidence of being well-maintained and the guests are taken care of. Thank you, Comfort Inn.  Keep up the good work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r35936500-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>35936500</t>
+  </si>
+  <si>
+    <t>07/27/2009</t>
+  </si>
+  <si>
+    <t>best hotel at half the price</t>
+  </si>
+  <si>
+    <t>if our room had had a balcony, this would have been the perfect hotel.  I fell in love with this hotel.  everything was included: hot breakfast, coffee all day, laundry room, pool, gym, comfortable bed, refrigerator, micorwave, daily newspaper, internet service,  free parking, near freeway, and personable staff.  the other hotels we stayed were twice as expensive, and were far less attentive.  Thank you! Comfort Inn! YOU have won us over, and we are now loyal customers of yours.</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r32486716-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>32486716</t>
+  </si>
+  <si>
+    <t>06/16/2009</t>
+  </si>
+  <si>
+    <t>Good quality and value</t>
+  </si>
+  <si>
+    <t>Stayed here in May 2009. Very helpful staff when checking in, room was clean and had plenty of space. There is wireless internet provided but I found the connection to be unreliable. The provided breakfast was fine, and there was no shortages off anything. You need a car of to get to old Pasadena from here or catch a cab but there is plenty of parking on site. For the price we paid I think it was very good value.</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r20292085-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>20292085</t>
+  </si>
+  <si>
+    <t>09/22/2008</t>
+  </si>
+  <si>
+    <t>Great Motel for a Comfortable Weekend</t>
+  </si>
+  <si>
+    <t>We've stayed here before and were comfortable with staying here again.This is a nice motel that is quiet and relaxing.  It's on Colorado Blvd but 2 miles east of the 'main' downtown of Pasadena...a plus in my book.The rooms were clean, well appointed, and the beds were comfortable.  I like the free wireless internet, although the signal on the second floor was a little weak...but it worked.The continental breakfast is available from 6:00 until 10:30, which is very nice considering I sometimes sleep in on the weekend and it's a drag if they are cleaning up around 9:00.  Cereal, waffles, fruit, danish, hard boiled eggs, juice, coffee, etc. are all available and not dried out or stale.Pricing was very reasonable for a stay in a very nice motel of this stature and we will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>We've stayed here before and were comfortable with staying here again.This is a nice motel that is quiet and relaxing.  It's on Colorado Blvd but 2 miles east of the 'main' downtown of Pasadena...a plus in my book.The rooms were clean, well appointed, and the beds were comfortable.  I like the free wireless internet, although the signal on the second floor was a little weak...but it worked.The continental breakfast is available from 6:00 until 10:30, which is very nice considering I sometimes sleep in on the weekend and it's a drag if they are cleaning up around 9:00.  Cereal, waffles, fruit, danish, hard boiled eggs, juice, coffee, etc. are all available and not dried out or stale.Pricing was very reasonable for a stay in a very nice motel of this stature and we will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r18070703-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>18070703</t>
+  </si>
+  <si>
+    <t>07/20/2008</t>
+  </si>
+  <si>
+    <t>Very Pleasant--Good Value</t>
+  </si>
+  <si>
+    <t>My husband and I booked a room after reading the reviews for this hotel.  I was very pleased with our overnight stay.  The room was clean and comfortable and the staff was pleasant.  I especially appreciated the microwave (with paper plates!) and upgraded microfridge (with freezer).  The area around the hotel was quiet and parking was located directly outside the rooms.</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r17910984-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>17910984</t>
+  </si>
+  <si>
+    <t>07/15/2008</t>
+  </si>
+  <si>
+    <t>Great attitude, great price, nice rooms = would stay again.</t>
+  </si>
+  <si>
+    <t>Took three rooms for three nights for family traveling with kids and grandparents.  Staff was very helpful and all had a good service attitude.  Complimentary breakfast was adequate--there was no yogurt until last day.  Rooms were up-to-date and functional and clean.  Pool was very small but good enough to cool off though lacking much lounge area.  Great value overall!</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r15358529-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>15358529</t>
+  </si>
+  <si>
+    <t>04/25/2008</t>
+  </si>
+  <si>
+    <t>Good value, great location</t>
+  </si>
+  <si>
+    <t>Room:
+Big enough for a family of four that plans to be on the go all day. The decor is a bit outdated and could use some overrall sprucing up but it was clean, which is important.  This Comfort Inn offered free wireless internet access but it was sporadic. The front desk person did not know how we should configure our computer to utilize the wireless but my husband figured it out.  There are two computers in the lobby/front desk if you cannot get your internet working in the room.
+Pool/Fitness room:
+The pool was very small, we did not go in. The fitness room was very mediocre. A half hour on the one treadmill is probably all one could tolerate. 
+Breakfast:
+The free continental breakfast at this hotel is wonderful.  An assortment of beverages, bagels, english muffins, danishes, fruit, yogurt, hard boiled eggs, cereal and a waffle maker!! This saved us a lot of money on breakfast each morning. Not much seating but we managed.
+Location:
+Pasadena is a very nice city with lots of restaurants within a 10 minute drive of the hotel (including Olive Garden, Tony Roma's, Souplantation, and Outback). I highly recommend a small pizzeria called Tarantino's! VERY YUMMY!
+Pasadena is a very convenient place to stay if you are planning on visiting Hollywood or Universal Studios. We hardly hit any traffic at all. It's also somewhat convenient to the Santa Monica Pier, however traffic was...Room:Big enough for a family of four that plans to be on the go all day. The decor is a bit outdated and could use some overrall sprucing up but it was clean, which is important.  This Comfort Inn offered free wireless internet access but it was sporadic. The front desk person did not know how we should configure our computer to utilize the wireless but my husband figured it out.  There are two computers in the lobby/front desk if you cannot get your internet working in the room.Pool/Fitness room:The pool was very small, we did not go in. The fitness room was very mediocre. A half hour on the one treadmill is probably all one could tolerate. Breakfast:The free continental breakfast at this hotel is wonderful.  An assortment of beverages, bagels, english muffins, danishes, fruit, yogurt, hard boiled eggs, cereal and a waffle maker!! This saved us a lot of money on breakfast each morning. Not much seating but we managed.Location:Pasadena is a very nice city with lots of restaurants within a 10 minute drive of the hotel (including Olive Garden, Tony Roma's, Souplantation, and Outback). I highly recommend a small pizzeria called Tarantino's! VERY YUMMY!Pasadena is a very convenient place to stay if you are planning on visiting Hollywood or Universal Studios. We hardly hit any traffic at all. It's also somewhat convenient to the Santa Monica Pier, however traffic was heavy and it took us a while to get there.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>Room:
+Big enough for a family of four that plans to be on the go all day. The decor is a bit outdated and could use some overrall sprucing up but it was clean, which is important.  This Comfort Inn offered free wireless internet access but it was sporadic. The front desk person did not know how we should configure our computer to utilize the wireless but my husband figured it out.  There are two computers in the lobby/front desk if you cannot get your internet working in the room.
+Pool/Fitness room:
+The pool was very small, we did not go in. The fitness room was very mediocre. A half hour on the one treadmill is probably all one could tolerate. 
+Breakfast:
+The free continental breakfast at this hotel is wonderful.  An assortment of beverages, bagels, english muffins, danishes, fruit, yogurt, hard boiled eggs, cereal and a waffle maker!! This saved us a lot of money on breakfast each morning. Not much seating but we managed.
+Location:
+Pasadena is a very nice city with lots of restaurants within a 10 minute drive of the hotel (including Olive Garden, Tony Roma's, Souplantation, and Outback). I highly recommend a small pizzeria called Tarantino's! VERY YUMMY!
+Pasadena is a very convenient place to stay if you are planning on visiting Hollywood or Universal Studios. We hardly hit any traffic at all. It's also somewhat convenient to the Santa Monica Pier, however traffic was...Room:Big enough for a family of four that plans to be on the go all day. The decor is a bit outdated and could use some overrall sprucing up but it was clean, which is important.  This Comfort Inn offered free wireless internet access but it was sporadic. The front desk person did not know how we should configure our computer to utilize the wireless but my husband figured it out.  There are two computers in the lobby/front desk if you cannot get your internet working in the room.Pool/Fitness room:The pool was very small, we did not go in. The fitness room was very mediocre. A half hour on the one treadmill is probably all one could tolerate. Breakfast:The free continental breakfast at this hotel is wonderful.  An assortment of beverages, bagels, english muffins, danishes, fruit, yogurt, hard boiled eggs, cereal and a waffle maker!! This saved us a lot of money on breakfast each morning. Not much seating but we managed.Location:Pasadena is a very nice city with lots of restaurants within a 10 minute drive of the hotel (including Olive Garden, Tony Roma's, Souplantation, and Outback). I highly recommend a small pizzeria called Tarantino's! VERY YUMMY!Pasadena is a very convenient place to stay if you are planning on visiting Hollywood or Universal Studios. We hardly hit any traffic at all. It's also somewhat convenient to the Santa Monica Pier, however traffic was heavy and it took us a while to get there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r14824084-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>14824084</t>
+  </si>
+  <si>
+    <t>04/06/2008</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>Stayed for three nights and found the room large (by European standards), clean and well equipped. Good bed and clean linens, maybe some of the chairs were a bit dated but overall, this was a good room.  No noise problems, good car parking and the area was good.  Felt pleased to come back at the end of the day.  Breakfast was plentiful with breads, yoghurt, eggs, tea and coffee, juices, cereals, cheese, jam, free newspaper.  Not much seating but you can take it back to your room.  Staff friendly at check-in and check-out.  The safe in the room had a flat battery when I arrived, but they immediately (literally) came and changed it without any fuss.  Microwave and fridge in room, and toiletries supplied.  Supermarket and the charming Old Pasadena not far away in the car.  No problem driving into LA from here.  Overall this was a good solid motel.  TIP: I got a slightly cheaper rate by selecting 'Internet User' as the rate programme on the Comfort Inn website.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>Stayed for three nights and found the room large (by European standards), clean and well equipped. Good bed and clean linens, maybe some of the chairs were a bit dated but overall, this was a good room.  No noise problems, good car parking and the area was good.  Felt pleased to come back at the end of the day.  Breakfast was plentiful with breads, yoghurt, eggs, tea and coffee, juices, cereals, cheese, jam, free newspaper.  Not much seating but you can take it back to your room.  Staff friendly at check-in and check-out.  The safe in the room had a flat battery when I arrived, but they immediately (literally) came and changed it without any fuss.  Microwave and fridge in room, and toiletries supplied.  Supermarket and the charming Old Pasadena not far away in the car.  No problem driving into LA from here.  Overall this was a good solid motel.  TIP: I got a slightly cheaper rate by selecting 'Internet User' as the rate programme on the Comfort Inn website.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r14326321-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>14326321</t>
+  </si>
+  <si>
+    <t>03/16/2008</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for one night in February 2008.  Overall, this is hotel is a good value for the money.  The room was clean, the bed was comfortable and parking was free.  Things were a bit noisy until about 11pm with kids running around and people yelling back and forth between the parking lot and the rooms, but all was quiet after that.  There were movies available at the front desk to borrow and view in your room.  There was also free internet access in the lobby computer. We would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r12267123-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>12267123</t>
+  </si>
+  <si>
+    <t>01/02/2008</t>
+  </si>
+  <si>
+    <t>Had a nice stay</t>
+  </si>
+  <si>
+    <t>Stayed at the Comfort Inn in Pasadena for 3 nights during Christmas week.  It was a nice motor inn, nothing fancy, but had everything you needed.  The complementary breakfast every morning was nice.  Had different varieties of breads, make your own waffles, oatmeal and cereals, hard boiled eggs, yogurts, juices and milk and different fruits.  The place wasn't noisy.  It seems to cater to an older clientele.  We were travelling with our 9 month old, so really nice to have a fridge and microwave in the room.  The complaints we did have were that there were ants in the room and the crib they gave us was pretty dirty.</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r11185410-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>11185410</t>
+  </si>
+  <si>
+    <t>12/01/2007</t>
+  </si>
+  <si>
+    <t>Great place to stay, great location</t>
+  </si>
+  <si>
+    <t>Booked the Comfort Inn from the choicehotels website. Great place to stay for the money-clean room-free parking-good breakfast-free wired internet-very good location - bunch of eateries within a few minutes drive-fitness center has limited equipment, but it was empty whenever I went, so I have no complaints.I would definitely stay here again if I'm in the area.</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r10073680-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>10073680</t>
+  </si>
+  <si>
+    <t>10/13/2007</t>
+  </si>
+  <si>
+    <t>Great Place To Stay!</t>
+  </si>
+  <si>
+    <t>This is a great motel for the money, even compared to hotels which cost much more.  The rooms are large and clean.  The free breakfast is terrific.  There is free internet access in the lobby 24/7.The location is very convenient right off the 210, easy to get to L.A.I highly recommend staying here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r6566311-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>6566311</t>
+  </si>
+  <si>
+    <t>01/07/2007</t>
+  </si>
+  <si>
+    <t>Nice Motel,will come back</t>
+  </si>
+  <si>
+    <t>We Stayed this motel for 3 days,the front desk lady was very friendly.Our room was on 3rd floor,they have elevator so we didn't have any problem to take our luaggage to our room.When we entered our room,the first impression is clean,i found some detail that show they care the bussiness: they have paper plates on the top of the microwave,swivel magnification mirror onthe wall,the bath room was clean too.About the breakfast,I think it's good and lots of choices.The location is very good,short drive to old town pasadena,about this area I'd like to recommend a restrurant, Mi Piace,good atmosphere,don't think it's expensive ,just like olive garden but the quality is beyond that.I had an pumpkin ravioli and it's excellent.I always remind myself what you got is what you paid,this motel is exactly what I should get for about $80/night in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We Stayed this motel for 3 days,the front desk lady was very friendly.Our room was on 3rd floor,they have elevator so we didn't have any problem to take our luaggage to our room.When we entered our room,the first impression is clean,i found some detail that show they care the bussiness: they have paper plates on the top of the microwave,swivel magnification mirror onthe wall,the bath room was clean too.About the breakfast,I think it's good and lots of choices.The location is very good,short drive to old town pasadena,about this area I'd like to recommend a restrurant, Mi Piace,good atmosphere,don't think it's expensive ,just like olive garden but the quality is beyond that.I had an pumpkin ravioli and it's excellent.I always remind myself what you got is what you paid,this motel is exactly what I should get for about $80/night in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r5331579-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>5331579</t>
+  </si>
+  <si>
+    <t>06/10/2006</t>
+  </si>
+  <si>
+    <t>The worst</t>
+  </si>
+  <si>
+    <t>They might as well have just put some linens on the floor - the bed was that hard - I put their ugly decorative pillow on the matress and tried to sleep on them.  I didn't get any sleep.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r5181015-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>5181015</t>
+  </si>
+  <si>
+    <t>05/17/2006</t>
+  </si>
+  <si>
+    <t>Still great...</t>
+  </si>
+  <si>
+    <t>The rooms are clean and modern and the prices are low! this is more then I can ask for, have been here before and will be here again. The breakfast is wonderful too.Do not hesitate to make a reservation here!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r3195376-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>3195376</t>
+  </si>
+  <si>
+    <t>02/15/2005</t>
+  </si>
+  <si>
+    <t>Unsafe</t>
+  </si>
+  <si>
+    <t>Stayed here on 2/5/05, the place was not clean, no working phone in our room.  This is a run down motel with unsavory characters as guests.  We left after 1 night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r3020998-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>3020998</t>
+  </si>
+  <si>
+    <t>01/19/2005</t>
+  </si>
+  <si>
+    <t>Great deal!</t>
+  </si>
+  <si>
+    <t>Rooms are big &amp; clean.  Breakfast is good.  Staff is helpful &amp; friendly.  We will stay here again!</t>
+  </si>
+  <si>
+    <t>January 2005</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r2499311-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>2499311</t>
+  </si>
+  <si>
+    <t>08/27/2004</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Very clean, well kept.  Front desk was helpful &amp; friendly.  Bus route to Old Town Pasadena goes right in front of hotel on Colorado.  We were very pleased with our stay.  Will stay there again during our next trip to LA.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2349,5807 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>127</v>
+      </c>
+      <c r="O16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>141</v>
+      </c>
+      <c r="O17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>141</v>
+      </c>
+      <c r="O18" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>153</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" t="s">
+        <v>157</v>
+      </c>
+      <c r="L20" t="s">
+        <v>158</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" t="s">
+        <v>164</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>165</v>
+      </c>
+      <c r="O21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" t="s">
+        <v>170</v>
+      </c>
+      <c r="L22" t="s">
+        <v>171</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>165</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23" t="s">
+        <v>174</v>
+      </c>
+      <c r="K23" t="s">
+        <v>175</v>
+      </c>
+      <c r="L23" t="s">
+        <v>176</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>177</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J24" t="s">
+        <v>180</v>
+      </c>
+      <c r="K24" t="s">
+        <v>181</v>
+      </c>
+      <c r="L24" t="s">
+        <v>182</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>183</v>
+      </c>
+      <c r="O24" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>186</v>
+      </c>
+      <c r="J25" t="s">
+        <v>187</v>
+      </c>
+      <c r="K25" t="s">
+        <v>188</v>
+      </c>
+      <c r="L25" t="s">
+        <v>189</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>183</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>191</v>
+      </c>
+      <c r="J26" t="s">
+        <v>192</v>
+      </c>
+      <c r="K26" t="s">
+        <v>193</v>
+      </c>
+      <c r="L26" t="s">
+        <v>194</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>195</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>197</v>
+      </c>
+      <c r="J27" t="s">
+        <v>198</v>
+      </c>
+      <c r="K27" t="s">
+        <v>199</v>
+      </c>
+      <c r="L27" t="s">
+        <v>200</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
+      </c>
+      <c r="O27" t="s">
+        <v>74</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>202</v>
+      </c>
+      <c r="J28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L28" t="s">
+        <v>205</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>208</v>
+      </c>
+      <c r="J29" t="s">
+        <v>209</v>
+      </c>
+      <c r="K29" t="s">
+        <v>210</v>
+      </c>
+      <c r="L29" t="s">
+        <v>211</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>212</v>
+      </c>
+      <c r="O29" t="s">
+        <v>74</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>214</v>
+      </c>
+      <c r="J30" t="s">
+        <v>215</v>
+      </c>
+      <c r="K30" t="s">
+        <v>216</v>
+      </c>
+      <c r="L30" t="s">
+        <v>217</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>212</v>
+      </c>
+      <c r="O30" t="s">
+        <v>88</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>218</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>219</v>
+      </c>
+      <c r="J31" t="s">
+        <v>220</v>
+      </c>
+      <c r="K31" t="s">
+        <v>221</v>
+      </c>
+      <c r="L31" t="s">
+        <v>222</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>212</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>224</v>
+      </c>
+      <c r="J32" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" t="s">
+        <v>226</v>
+      </c>
+      <c r="L32" t="s">
+        <v>227</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>228</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>229</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>230</v>
+      </c>
+      <c r="J33" t="s">
+        <v>231</v>
+      </c>
+      <c r="K33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L33" t="s">
+        <v>233</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>228</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>235</v>
+      </c>
+      <c r="J34" t="s">
+        <v>236</v>
+      </c>
+      <c r="K34" t="s">
+        <v>237</v>
+      </c>
+      <c r="L34" t="s">
+        <v>238</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>228</v>
+      </c>
+      <c r="O34" t="s">
+        <v>88</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>240</v>
+      </c>
+      <c r="J35" t="s">
+        <v>241</v>
+      </c>
+      <c r="K35" t="s">
+        <v>242</v>
+      </c>
+      <c r="L35" t="s">
+        <v>243</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>244</v>
+      </c>
+      <c r="O35" t="s">
+        <v>74</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>247</v>
+      </c>
+      <c r="J36" t="s">
+        <v>241</v>
+      </c>
+      <c r="K36" t="s">
+        <v>248</v>
+      </c>
+      <c r="L36" t="s">
+        <v>249</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>250</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>251</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>252</v>
+      </c>
+      <c r="J37" t="s">
+        <v>253</v>
+      </c>
+      <c r="K37" t="s">
+        <v>254</v>
+      </c>
+      <c r="L37" t="s">
+        <v>255</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>250</v>
+      </c>
+      <c r="O37" t="s">
+        <v>74</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>257</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>258</v>
+      </c>
+      <c r="J38" t="s">
+        <v>259</v>
+      </c>
+      <c r="K38" t="s">
+        <v>260</v>
+      </c>
+      <c r="L38" t="s">
+        <v>261</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>262</v>
+      </c>
+      <c r="O38" t="s">
+        <v>88</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>263</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>264</v>
+      </c>
+      <c r="J39" t="s">
+        <v>265</v>
+      </c>
+      <c r="K39" t="s">
+        <v>266</v>
+      </c>
+      <c r="L39" t="s">
+        <v>267</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>268</v>
+      </c>
+      <c r="O39" t="s">
+        <v>74</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>269</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>270</v>
+      </c>
+      <c r="J40" t="s">
+        <v>265</v>
+      </c>
+      <c r="K40" t="s">
+        <v>271</v>
+      </c>
+      <c r="L40" t="s">
+        <v>272</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>262</v>
+      </c>
+      <c r="O40" t="s">
+        <v>88</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>274</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>275</v>
+      </c>
+      <c r="J41" t="s">
+        <v>276</v>
+      </c>
+      <c r="K41" t="s">
+        <v>277</v>
+      </c>
+      <c r="L41" t="s">
+        <v>278</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>279</v>
+      </c>
+      <c r="O41" t="s">
+        <v>88</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>280</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J42" t="s">
+        <v>282</v>
+      </c>
+      <c r="K42" t="s">
+        <v>283</v>
+      </c>
+      <c r="L42" t="s">
+        <v>284</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>285</v>
+      </c>
+      <c r="O42" t="s">
+        <v>74</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>286</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>287</v>
+      </c>
+      <c r="J43" t="s">
+        <v>288</v>
+      </c>
+      <c r="K43" t="s">
+        <v>289</v>
+      </c>
+      <c r="L43" t="s">
+        <v>290</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>285</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>291</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>292</v>
+      </c>
+      <c r="J44" t="s">
+        <v>293</v>
+      </c>
+      <c r="K44" t="s">
+        <v>294</v>
+      </c>
+      <c r="L44" t="s">
+        <v>295</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>296</v>
+      </c>
+      <c r="O44" t="s">
+        <v>74</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>297</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>298</v>
+      </c>
+      <c r="J45" t="s">
+        <v>299</v>
+      </c>
+      <c r="K45" t="s">
+        <v>300</v>
+      </c>
+      <c r="L45" t="s">
+        <v>301</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>296</v>
+      </c>
+      <c r="O45" t="s">
+        <v>88</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>303</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>304</v>
+      </c>
+      <c r="J46" t="s">
+        <v>305</v>
+      </c>
+      <c r="K46" t="s">
+        <v>306</v>
+      </c>
+      <c r="L46" t="s">
+        <v>307</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>308</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>309</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>310</v>
+      </c>
+      <c r="J47" t="s">
+        <v>311</v>
+      </c>
+      <c r="K47" t="s">
+        <v>312</v>
+      </c>
+      <c r="L47" t="s">
+        <v>313</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>308</v>
+      </c>
+      <c r="O47" t="s">
+        <v>74</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>314</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>315</v>
+      </c>
+      <c r="J48" t="s">
+        <v>316</v>
+      </c>
+      <c r="K48" t="s">
+        <v>317</v>
+      </c>
+      <c r="L48" t="s">
+        <v>318</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>319</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>320</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>321</v>
+      </c>
+      <c r="J49" t="s">
+        <v>322</v>
+      </c>
+      <c r="K49" t="s">
+        <v>323</v>
+      </c>
+      <c r="L49" t="s">
+        <v>324</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>279</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>325</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>326</v>
+      </c>
+      <c r="J50" t="s">
+        <v>327</v>
+      </c>
+      <c r="K50" t="s">
+        <v>328</v>
+      </c>
+      <c r="L50" t="s">
+        <v>329</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>330</v>
+      </c>
+      <c r="O50" t="s">
+        <v>74</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>331</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>332</v>
+      </c>
+      <c r="J51" t="s">
+        <v>333</v>
+      </c>
+      <c r="K51" t="s">
+        <v>334</v>
+      </c>
+      <c r="L51" t="s">
+        <v>335</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>336</v>
+      </c>
+      <c r="O51" t="s">
+        <v>81</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>337</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>338</v>
+      </c>
+      <c r="J52" t="s">
+        <v>339</v>
+      </c>
+      <c r="K52" t="s">
+        <v>79</v>
+      </c>
+      <c r="L52" t="s">
+        <v>340</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>336</v>
+      </c>
+      <c r="O52" t="s">
+        <v>88</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>341</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>342</v>
+      </c>
+      <c r="J53" t="s">
+        <v>343</v>
+      </c>
+      <c r="K53" t="s">
+        <v>344</v>
+      </c>
+      <c r="L53" t="s">
+        <v>345</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>346</v>
+      </c>
+      <c r="O53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>347</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>348</v>
+      </c>
+      <c r="J54" t="s">
+        <v>349</v>
+      </c>
+      <c r="K54" t="s">
+        <v>350</v>
+      </c>
+      <c r="L54" t="s">
+        <v>351</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>352</v>
+      </c>
+      <c r="O54" t="s">
+        <v>74</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>353</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>354</v>
+      </c>
+      <c r="J55" t="s">
+        <v>355</v>
+      </c>
+      <c r="K55" t="s">
+        <v>356</v>
+      </c>
+      <c r="L55" t="s">
+        <v>357</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>352</v>
+      </c>
+      <c r="O55" t="s">
+        <v>88</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>358</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>359</v>
+      </c>
+      <c r="J56" t="s">
+        <v>360</v>
+      </c>
+      <c r="K56" t="s">
+        <v>361</v>
+      </c>
+      <c r="L56" t="s">
+        <v>362</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>363</v>
+      </c>
+      <c r="O56" t="s">
+        <v>88</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>365</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>366</v>
+      </c>
+      <c r="J57" t="s">
+        <v>367</v>
+      </c>
+      <c r="K57" t="s">
+        <v>368</v>
+      </c>
+      <c r="L57" t="s">
+        <v>369</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>370</v>
+      </c>
+      <c r="O57" t="s">
+        <v>81</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>372</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>373</v>
+      </c>
+      <c r="J58" t="s">
+        <v>374</v>
+      </c>
+      <c r="K58" t="s">
+        <v>375</v>
+      </c>
+      <c r="L58" t="s">
+        <v>376</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>377</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>378</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>379</v>
+      </c>
+      <c r="J59" t="s">
+        <v>380</v>
+      </c>
+      <c r="K59" t="s">
+        <v>381</v>
+      </c>
+      <c r="L59" t="s">
+        <v>382</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>383</v>
+      </c>
+      <c r="O59" t="s">
+        <v>74</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>385</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>386</v>
+      </c>
+      <c r="J60" t="s">
+        <v>387</v>
+      </c>
+      <c r="K60" t="s">
+        <v>388</v>
+      </c>
+      <c r="L60" t="s">
+        <v>389</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>383</v>
+      </c>
+      <c r="O60" t="s">
+        <v>81</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>390</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>391</v>
+      </c>
+      <c r="J61" t="s">
+        <v>392</v>
+      </c>
+      <c r="K61" t="s">
+        <v>393</v>
+      </c>
+      <c r="L61" t="s">
+        <v>394</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>395</v>
+      </c>
+      <c r="O61" t="s">
+        <v>74</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>397</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>398</v>
+      </c>
+      <c r="J62" t="s">
+        <v>399</v>
+      </c>
+      <c r="K62" t="s">
+        <v>400</v>
+      </c>
+      <c r="L62" t="s">
+        <v>401</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>402</v>
+      </c>
+      <c r="O62" t="s">
+        <v>88</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>404</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>405</v>
+      </c>
+      <c r="J63" t="s">
+        <v>406</v>
+      </c>
+      <c r="K63" t="s">
+        <v>407</v>
+      </c>
+      <c r="L63" t="s">
+        <v>408</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>402</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>409</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>410</v>
+      </c>
+      <c r="J64" t="s">
+        <v>411</v>
+      </c>
+      <c r="K64" t="s">
+        <v>412</v>
+      </c>
+      <c r="L64" t="s">
+        <v>413</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>414</v>
+      </c>
+      <c r="O64" t="s">
+        <v>74</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>415</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>416</v>
+      </c>
+      <c r="J65" t="s">
+        <v>417</v>
+      </c>
+      <c r="K65" t="s">
+        <v>418</v>
+      </c>
+      <c r="L65" t="s">
+        <v>419</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>421</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>422</v>
+      </c>
+      <c r="J66" t="s">
+        <v>423</v>
+      </c>
+      <c r="K66" t="s">
+        <v>424</v>
+      </c>
+      <c r="L66" t="s">
+        <v>425</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>426</v>
+      </c>
+      <c r="O66" t="s">
+        <v>74</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>427</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>428</v>
+      </c>
+      <c r="J67" t="s">
+        <v>429</v>
+      </c>
+      <c r="K67" t="s">
+        <v>430</v>
+      </c>
+      <c r="L67" t="s">
+        <v>431</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>432</v>
+      </c>
+      <c r="O67" t="s">
+        <v>74</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>433</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>434</v>
+      </c>
+      <c r="J68" t="s">
+        <v>435</v>
+      </c>
+      <c r="K68" t="s">
+        <v>436</v>
+      </c>
+      <c r="L68" t="s">
+        <v>437</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>432</v>
+      </c>
+      <c r="O68" t="s">
+        <v>74</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>439</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>440</v>
+      </c>
+      <c r="J69" t="s">
+        <v>441</v>
+      </c>
+      <c r="K69" t="s">
+        <v>442</v>
+      </c>
+      <c r="L69" t="s">
+        <v>443</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>444</v>
+      </c>
+      <c r="O69" t="s">
+        <v>74</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>446</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>447</v>
+      </c>
+      <c r="J70" t="s">
+        <v>448</v>
+      </c>
+      <c r="K70" t="s">
+        <v>449</v>
+      </c>
+      <c r="L70" t="s">
+        <v>450</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>451</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>453</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>454</v>
+      </c>
+      <c r="J71" t="s">
+        <v>455</v>
+      </c>
+      <c r="K71" t="s">
+        <v>456</v>
+      </c>
+      <c r="L71" t="s">
+        <v>457</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>458</v>
+      </c>
+      <c r="O71" t="s">
+        <v>88</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>460</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>461</v>
+      </c>
+      <c r="J72" t="s">
+        <v>462</v>
+      </c>
+      <c r="K72" t="s">
+        <v>463</v>
+      </c>
+      <c r="L72" t="s">
+        <v>464</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>465</v>
+      </c>
+      <c r="O72" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>466</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>467</v>
+      </c>
+      <c r="J73" t="s">
+        <v>468</v>
+      </c>
+      <c r="K73" t="s">
+        <v>469</v>
+      </c>
+      <c r="L73" t="s">
+        <v>470</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>471</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>472</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>473</v>
+      </c>
+      <c r="J74" t="s">
+        <v>474</v>
+      </c>
+      <c r="K74" t="s">
+        <v>475</v>
+      </c>
+      <c r="L74" t="s">
+        <v>476</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>477</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>479</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>480</v>
+      </c>
+      <c r="J75" t="s">
+        <v>481</v>
+      </c>
+      <c r="K75" t="s">
+        <v>482</v>
+      </c>
+      <c r="L75" t="s">
+        <v>483</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>477</v>
+      </c>
+      <c r="O75" t="s">
+        <v>74</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>484</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>485</v>
+      </c>
+      <c r="J76" t="s">
+        <v>486</v>
+      </c>
+      <c r="K76" t="s">
+        <v>487</v>
+      </c>
+      <c r="L76" t="s">
+        <v>488</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>489</v>
+      </c>
+      <c r="O76" t="s">
+        <v>88</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>491</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>492</v>
+      </c>
+      <c r="J77" t="s">
+        <v>493</v>
+      </c>
+      <c r="K77" t="s">
+        <v>494</v>
+      </c>
+      <c r="L77" t="s">
+        <v>495</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>496</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>498</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>499</v>
+      </c>
+      <c r="J78" t="s">
+        <v>500</v>
+      </c>
+      <c r="K78" t="s">
+        <v>501</v>
+      </c>
+      <c r="L78" t="s">
+        <v>502</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>503</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>504</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>505</v>
+      </c>
+      <c r="J79" t="s">
+        <v>506</v>
+      </c>
+      <c r="K79" t="s">
+        <v>507</v>
+      </c>
+      <c r="L79" t="s">
+        <v>508</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>509</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>510</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>511</v>
+      </c>
+      <c r="J80" t="s">
+        <v>512</v>
+      </c>
+      <c r="K80" t="s">
+        <v>513</v>
+      </c>
+      <c r="L80" t="s">
+        <v>514</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>515</v>
+      </c>
+      <c r="O80" t="s">
+        <v>81</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>517</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>518</v>
+      </c>
+      <c r="J81" t="s">
+        <v>519</v>
+      </c>
+      <c r="K81" t="s">
+        <v>520</v>
+      </c>
+      <c r="L81" t="s">
+        <v>521</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>522</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>523</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>524</v>
+      </c>
+      <c r="J82" t="s">
+        <v>525</v>
+      </c>
+      <c r="K82" t="s">
+        <v>526</v>
+      </c>
+      <c r="L82" t="s">
+        <v>527</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>528</v>
+      </c>
+      <c r="O82" t="s">
+        <v>74</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>529</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>530</v>
+      </c>
+      <c r="J83" t="s">
+        <v>531</v>
+      </c>
+      <c r="K83" t="s">
+        <v>532</v>
+      </c>
+      <c r="L83" t="s">
+        <v>533</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>534</v>
+      </c>
+      <c r="O83" t="s">
+        <v>74</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>536</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>537</v>
+      </c>
+      <c r="J84" t="s">
+        <v>538</v>
+      </c>
+      <c r="K84" t="s">
+        <v>539</v>
+      </c>
+      <c r="L84" t="s">
+        <v>540</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>541</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>543</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>544</v>
+      </c>
+      <c r="J85" t="s">
+        <v>545</v>
+      </c>
+      <c r="K85" t="s">
+        <v>163</v>
+      </c>
+      <c r="L85" t="s">
+        <v>546</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>547</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>548</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>549</v>
+      </c>
+      <c r="J86" t="s">
+        <v>550</v>
+      </c>
+      <c r="K86" t="s">
+        <v>551</v>
+      </c>
+      <c r="L86" t="s">
+        <v>552</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>553</v>
+      </c>
+      <c r="O86" t="s">
+        <v>74</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>2</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>554</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>555</v>
+      </c>
+      <c r="J87" t="s">
+        <v>556</v>
+      </c>
+      <c r="K87" t="s">
+        <v>557</v>
+      </c>
+      <c r="L87" t="s">
+        <v>558</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>559</v>
+      </c>
+      <c r="O87" t="s">
+        <v>74</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>560</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>561</v>
+      </c>
+      <c r="J88" t="s">
+        <v>562</v>
+      </c>
+      <c r="K88" t="s">
+        <v>563</v>
+      </c>
+      <c r="L88" t="s">
+        <v>564</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>559</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>565</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>566</v>
+      </c>
+      <c r="J89" t="s">
+        <v>567</v>
+      </c>
+      <c r="K89" t="s">
+        <v>568</v>
+      </c>
+      <c r="L89" t="s">
+        <v>569</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>571</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>572</v>
+      </c>
+      <c r="J90" t="s">
+        <v>573</v>
+      </c>
+      <c r="K90" t="s">
+        <v>574</v>
+      </c>
+      <c r="L90" t="s">
+        <v>575</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>576</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>577</v>
+      </c>
+      <c r="J91" t="s">
+        <v>578</v>
+      </c>
+      <c r="K91" t="s">
+        <v>579</v>
+      </c>
+      <c r="L91" t="s">
+        <v>580</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>581</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>582</v>
+      </c>
+      <c r="J92" t="s">
+        <v>583</v>
+      </c>
+      <c r="K92" t="s">
+        <v>584</v>
+      </c>
+      <c r="L92" t="s">
+        <v>585</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>586</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>587</v>
+      </c>
+      <c r="J93" t="s">
+        <v>588</v>
+      </c>
+      <c r="K93" t="s">
+        <v>589</v>
+      </c>
+      <c r="L93" t="s">
+        <v>590</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>591</v>
+      </c>
+      <c r="O93" t="s">
+        <v>88</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="s"/>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>3956</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>592</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>593</v>
+      </c>
+      <c r="J94" t="s">
+        <v>594</v>
+      </c>
+      <c r="K94" t="s">
+        <v>595</v>
+      </c>
+      <c r="L94" t="s">
+        <v>596</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>596</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_129.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_129.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="685">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Dale M</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Elise K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r580633227-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>Bought a Groupon for a 4-night stay here in early March and was really pleased with the location, free parking, quiet and comfortable room, and great sleep.  I didn't pay much attention to the fact that my first morning I woke up with a string of what I thought were mosquito bites along my wrist.  Upon returning home to Phoenix, the bites proliferated all over my hands, necessitating a two trips to the doctor and one to urgent care for a shot of cortisone to control the unbearable itch.  They did a biopsy (from which I now have a scar) and determined that the culprit was bedbugs.  This hell impacted mine and my partner's sleep for weeks, reduced my ability to work, and required us to have a $1450 heat treatment of our home (which worked instantly!) and throw away many of our high end linens and new Pottery Barn upholstered bed as the hitchhikers were found hiding in its headboard.  My advice to Comfort Inn is to perform heat treatment in all rooms immediately and for travelers to not only inspect their bed but not to disregard any bites they may discover while traveling.  A great trip, but an expensive lesson.More</t>
   </si>
   <si>
+    <t>RedFiona</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r579918755-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>Andrew G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r562728583-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>I don't like to write neg. reviews but this place was bad. The plumbing backed up and several first floor toilets flooded over. the front desk staff used a small residential drain snake to clean out the main line, they had toilet paper and sewer water all over the front entrance of the hotel parking lot.. the fire alarm went of 2 times on Saturday night. There was a family in the room above us that had children jumping off of the bed and stomping all over the room, we told the front desk clerk but that did no good. The place needs some serious updating and cleaning!! Not worth staying at any price!! I sent a negative review directly to the hotel and the manager wrote back apologizing for everything. I wouldn't stay there again even if I was given a free week, and free airfare to get there!!!More</t>
   </si>
   <si>
+    <t>David B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r558847752-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>reeshot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r551217317-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>gidgetcindy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r541032255-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>Just needed a quick place to crash after a nearby wedding. I can easily be happy in a basic room, but I need the bed to be comfortable and this wasn't. Tons of street noise. The breakfast was included and was your basic cereal/yogurt/powdered eggs kind of deal. They did have a waffle iron which my daughter enjoyed.</t>
   </si>
   <si>
+    <t>KdeBz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r539872268-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -315,6 +339,9 @@
     <t>... not that there was anything bad on the outside, but it looks like a generic motel, nothing special. Incredibly small pool in a weird corner of property and small parking spaces. BUT the room was actually quite nice for the price- clean, comfortable, good bed and amenities. Pretty large with sofa and desk in room and plenty of space all around. Very good stay for me traveling one night for work. Furnished more like a nicer Hampton or Ramada. Includes decent breakfast.</t>
   </si>
   <si>
+    <t>RobynAnnS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r536267159-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -333,6 +360,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>roadtripguyaz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r526413555-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -351,6 +381,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>AileenfromWashington</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r516436934-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -372,6 +405,9 @@
     <t>The hotel itself was OK and was convenient to where we needed to be. However their customer service is awful.  We made a reservation for this hotel via Expedia for 5 nights using a cancellable "deposit" option.  Note I did NOT choose the "non-refundable" option because I thought the stay might change.  We checked in and stayed for a night and then informed the hotel that we wanted to just stay one more night and wanted to cancel the remainder of the reservation.  We checked out the AM after the second night.  The hotel refused to refund ANY of the remaining three nights worth of fees and said it was boked via Expedia and was non-refundable for any changes (even though it was the hotel that collected the money - not Expedia).  I spent a long time on hold with Expedia trying to recitfy and pointing out the mis-leading information in the Rules and Restrictions and Policies on the itinerary.  No where did it say the hotel stay could not be changed after check-in or became non-refundable.  Instead it said that there was a one night penalty which we were willing to accept.  Expedia tried to help and called the hotel management several times but the hotel would not budge.  Expedia ended up feeling sorry for us and gave us a coupon for some of the amount we'd lost.More</t>
   </si>
   <si>
+    <t>jerseyscouter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r516229226-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -384,6 +420,9 @@
     <t>Pros:  Has elevator, ample parking, A/C worked great, responsiveness of staff, breakfast was fine (6am to 10am), printer for boarding passesCons:  Noisy fridge, remote that controls television is used through a set top box that can only be controlled from one angle.Hotel was adequate compared the reviews that exist about others in the areas.  Rate was about $122 per night plus taxes.  Tips:  ask for room on high floor (3rd)</t>
   </si>
   <si>
+    <t>richzemail</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r497561877-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -402,6 +441,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>NyonyaLady</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r497546301-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -414,6 +456,9 @@
     <t>We chose to stay here when we visited our daughter who worked in Burbank and it was just a 20 minutes drive. We had a large room on the 3rd level. It was clean and well maintained with a couch and coffee table. The well thought of idea of installing a sliding door to hide the vanity area was charming. The king size bed and pillows were very comfortable and we enjoyed our sleep... quiet and quality. We will definitely stay here again in our future visits to LA.</t>
   </si>
   <si>
+    <t>Dan P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r497532093-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -426,6 +471,9 @@
     <t>This is a motel-style facility. The room was clean, but small. Staff was very friendly and the breakfast offered hot choices. It was quiet, and safe. The outdoor pool and hot tub were small, but nice.</t>
   </si>
   <si>
+    <t>Ren A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r489275208-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -447,6 +495,9 @@
     <t>Our room was on the ground floor next to the lobby but it was not too noisy.  It was a handicap room (which we did NOT request) and well worn.  The furniture and bathroom fixtures were showing much age and hard use.  There was a microwave, coffee maker and a fridge (it didn't seem to work well as it never got very cold even after adjusting the thermostat).  The AC unit is dated and had a noisy fan with very limited speed control.  Full blast or just blasting.  TV programming is very poor so not much entertainment choices in the room after a long day.  WiFi worked fine and the mattress was very comfortable.  The room was clean, but things were very worn out (dents in the furniture and black tape all around the closet mirror).  The front door was also poorly hung so there were huge gaps at the bottom and side which made it look insecure.  The front desk staff is friendly and very helpful which made check-in/out pleasant.  We didn't get to try the breakfast, but having one available is a great option.More</t>
   </si>
   <si>
+    <t>blball520</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r483763272-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -462,6 +513,9 @@
     <t>The room had been modernized and was clean and comfortable.  Carpet was new, good amount of space in the bathroom for cosmetics and items.  The room had a refrigerator WITH a freezer!  Coffeemaker small in the room but they always had coffee or decaf in the lobby.  Breakfast was typical but the eggs were great and the waffles of course were also terrific. Microwave also in the area.  The only complaint we had was the soap in the bathroom----horrible smelling stuff but I guess it did get us clean.  Had to go buy my own soap at the Vons across the street.  Will stay again!</t>
   </si>
   <si>
+    <t>Dennis N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r467435791-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -480,6 +534,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>NinaNJ7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r449437372-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -498,6 +555,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>cruiseshel-socal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r441649088-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -519,6 +579,9 @@
     <t>This is a motel style property with room doors facing exterior.  So it can get a bit noisy with guests talking, cars moving in and out and especially the maids.  The exterior isn't very impressive but it basically looks like all the other motels along Colorado Blvd.  Once you step inside the room it's a different story.  Everything you need is available.  There's a small but very efficient frig/freezer.  There's a microwave and a coffee pot.  One sink and plenty of room to spread out your make up and amenities.  The bathroom is decent size, water pressure fine, bathroom clean.  The soaps aren't anything great but they have tiny shampoo and lotion.  Maybe just add a shower cap.  The TV remote needed batteries which I finally figured out was the reason it was difficult to change channels.  A table and chairs in corner.  Surprising amount of room.  The duvet was comfy and so were pillows.  I think the mattress was OK but could have been a bit better quality.  I didn't eat the breakfast but the staff told me it consists of eggs and meat, etc., the usual fare.  Runs until 10 during the week and 1030 on weekends.  Internet worked great. Parking is tricky if you get in too late.  Might not get a space.  I have to say overall, for the price, you get a lot for your money.  There's no extra charge for parking or internet or...This is a motel style property with room doors facing exterior.  So it can get a bit noisy with guests talking, cars moving in and out and especially the maids.  The exterior isn't very impressive but it basically looks like all the other motels along Colorado Blvd.  Once you step inside the room it's a different story.  Everything you need is available.  There's a small but very efficient frig/freezer.  There's a microwave and a coffee pot.  One sink and plenty of room to spread out your make up and amenities.  The bathroom is decent size, water pressure fine, bathroom clean.  The soaps aren't anything great but they have tiny shampoo and lotion.  Maybe just add a shower cap.  The TV remote needed batteries which I finally figured out was the reason it was difficult to change channels.  A table and chairs in corner.  Surprising amount of room.  The duvet was comfy and so were pillows.  I think the mattress was OK but could have been a bit better quality.  I didn't eat the breakfast but the staff told me it consists of eggs and meat, etc., the usual fare.  Runs until 10 during the week and 1030 on weekends.  Internet worked great. Parking is tricky if you get in too late.  Might not get a space.  I have to say overall, for the price, you get a lot for your money.  There's no extra charge for parking or internet or breakfast.  And no resort fee.  But occupancy tax is high, almost 20% so if it's $100 a night you'll add almost another $20 to the bill per nt.  That's a bit steep.  Pasadena relies heavily on tourism and they’re really gouging the tourists here.  The other thing to note about this property is its location.  The Rose Parade does NOT pass in front of this property.  It turns on Sierra Madre which is a very short walk from the motel.  So you could reserve your space on street with your chairs but you're not going to stand outside your room and see much.  Also this is very close to where the parade turns at the very end.  So if it starts at 8 I'm going to guess it will take a couple hours to get to your part of town.  Advantage here is it might be a little warmer to stand outside to see the parade.  There is an ice machine, vending machine with candy and snacks and elevator.  This building is 3 stories. Also has a  small pool with towels which is good when it gets pretty hot here in summer.  You're pretty much driving rather than walking  to restaurants and old town is at the opposite end of Colorado Blvd.  Relatively close to Pasadena City College.  I've stayed in a few different properties in this city from high to lower end.  I have to say for the price, this one is the best deal.  Has all the amenities you need without having to pay exorbitant prices.  Friendly staff.  There's nothing to do at the property so this is strictly a place to crash at the end of the day. Best bang for your buck.More</t>
   </si>
   <si>
+    <t>mabel339</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r437961984-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -534,6 +597,9 @@
     <t>The hotel lives up to it's name. Very comfortable, quiet, clean, friendly staff, great breakfast selection, late check-out. Centrally located,  walking distance to Walgreens, Vons, Guitar Center, restaurants, etc. It's also at the end of the Rose Parade route.</t>
   </si>
   <si>
+    <t>anniedutch13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r426767574-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -552,6 +618,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>whc200</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r413377691-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -573,6 +642,9 @@
     <t>I stayed here because I was visiting family and was looking for a budget friendly place to stay. I am not terribly fussy as I do not spend a lot of time at the hotel and as long as it is safe and clean I'm fine with that.  What I found was such a pleasant surprise! Not only was the hotel clean and safe, the rooms were updated, very spacious and very comfortable. The pool and hot tub were an added bonus. the breakfast was adequate but I am not a big breakfast eater anyway. Staff was super nice. You do need a car to get to the local attractions but the location is very convenient....within a couple of miles of all the shops and restaurants. I found it easier to take city streets rather than follow GPS which takes you on the freeway to get downtown.......if you just go straight on Colorado blvd a couple of miles to Lake Ave, youre right downtown.More</t>
   </si>
   <si>
+    <t>AAA A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r410381097-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -588,6 +660,9 @@
     <t>One of the best motels I've stayed in. Good service clean rooms. Reasonable prices. Except the slow WiFi and a bit noisy A/C great place to stay provided the location in Pasadena does not put you away from what you are looking for.</t>
   </si>
   <si>
+    <t>AdamWa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r394837136-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -606,6 +681,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>John M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r390697136-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -619,6 +697,9 @@
   </si>
   <si>
     <t>Very good location, right on Colorado street, 5 minutes from Cal Tech. Easy to get in and out of parking. Breakfast comparable to a Best Western. Breakfast room is a bit small (12-15 seats). Room was clean and comfortable.</t>
+  </si>
+  <si>
+    <t>Stephen Y</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r390180329-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
@@ -659,6 +740,9 @@
 I would stay here again when in the Los Angeles area if I did not need to be on the...The Comfort Inn Pasadena is a clearly older motel, but it has been updated sufficiently over time. The property is a motel style with outside entry to the rooms and if three floors tall. The property has on site parking and is convenient to lots of shopping and restaurants in Pasadena. Room:Nice, standard Comfort Inn room with king size bed, couch, desk/chair, TV, and bathroom. The bed was comfortable and the AC worked well. There was a mini fridge and microwave as well as coffee maker. Bathroom:The water was hot and pressure was good. Oddly there is no towel rack, so if you want to hang your towel you have to do so over the shower rod. There used to be a towel rack, but it was removed in a previous renovation (the marks are still slightly visible). Standard shampoo, conditioner, and soap.Wifi:Fast and easy to use, but only various access points, not a unified network. This means you have to sign into a different wifi access point when you are in your room and when you are in the breakfast area. Not really a problem, just annoying.Breakfast:Good selection of waffles, cereal, yogurt, eggs, and sausage. The room that this is served in is a bit small and gets crowded on the weekend. Overall:I would stay here again when in the Los Angeles area if I did not need to be on the south side of the city.More</t>
   </si>
   <si>
+    <t>Kathleen S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r385007867-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -677,6 +761,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>carl2016221</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r377330930-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -692,6 +779,9 @@
     <t>This property needs updating.  Hot water supply not adequate; shower is too short for a person of average height; rooms are dark.  Having said that, our stay there was comfortable and the location on Colorado Blvd. puts it close to some of  Pasadena's attractions.</t>
   </si>
   <si>
+    <t>ritch62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r375604637-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -707,6 +797,9 @@
     <t>Not in the fancy part of Pasadena but a good choice anyway. Fancy part of Pasadena is not far and easily reached from here.  Staff was friendly.  Good hot breakfast.  Hotel is clean, room was comfortable and well maintained.  I'd stay here again.</t>
   </si>
   <si>
+    <t>diamondlvr7851</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r365825048-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -725,6 +818,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>LBWoody</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r359182312-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -740,6 +836,9 @@
     <t>We stayed two nights.  It was convenient to several things and easily accessible to I-210.  The rooms have recently been updated with stylish, modern décor. Beds were quite comfortable.  Parking is a little tight if they are full.  Breakfast was the "usual" for these types of motels. It's three story, but there is an elevator.</t>
   </si>
   <si>
+    <t>dmgart</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r356456287-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -755,6 +854,9 @@
     <t>If you need a tidy place to stay and don't need any frills, this is a great choice. The pool is tiny and the location isn't within walking distance to any attractions, but if you have a car it will do nicely. The rooms are actually quite nice and my room had a fridge and freezer. Staff was friendly.</t>
   </si>
   <si>
+    <t>Luoshi2001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r341839637-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -776,6 +878,9 @@
     <t>My self and 2children stayed in their 2 double beds studio for quite few days and we all liked it. The room was tastefully fitted with modern and quality  furnitures and bathroom fittings, the room is spacious and there is a dinning table with 2 chairs, very convenient for us to have a light meals just out of the in room microwave.  my friend who visited us stayed a king bed studio next to us and that room is even more spacious because of only 1 bed so there is a couch in it making the room so big. Their service were great too. I found out after I checked out that I have left my passports in the room, I was so worried for not being able to find, however they have put my heart at ease after I rang them and they kept the passports for me for few days. Recommended to everyone who needs a room in Los AngelesMore</t>
   </si>
   <si>
+    <t>NancyPnativeaz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r341729332-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -789,6 +894,9 @@
   </si>
   <si>
     <t>December 2015</t>
+  </si>
+  <si>
+    <t>zumbadiva1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r340850154-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
@@ -811,6 +919,9 @@
 The one thing we thought it was odd was in the lobby of the hotel, there were a lot of men gathering in the front, they were smoking and very loud. In general, it was a clean place and comfortable sleep. It...We went to California for a family affair. We stayed 3 nights, the room was very comfortable, we loved the bed and how comfortable the pillows were. This hotel is been renovating the rooms, they had the smell of fresh paint, new carpets and draperies. We loved the wide bathroom sink and all the space available to place your toiletries. However, they left unfinished a lot of details in the room we stayed in, and the bathroom still needs some TLC. For example, you can find debris from the work done in the room behind the bed and night stands, also some of the trim between the bedroom and the bathroom were not finished. The mini fridge is in a tucked in a weird space next to the closet, we just think this was placed the best they could, in other words it was not thought through. Nice flat screen TV, they still have the old phones on the night stands, but it is disconnected and instead the have a nice cordless phone. The hot water in the shower was hot and suddenly cold, we could not make it flow evenly, we did not like it at all.The one thing we thought it was odd was in the lobby of the hotel, there were a lot of men gathering in the front, they were smoking and very loud. In general, it was a clean place and comfortable sleep. It has a small and clean pool close to our room.More</t>
   </si>
   <si>
+    <t>AAASparky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r329431615-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -829,6 +940,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Abdelaziz S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r326184285-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -847,6 +961,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>DesertSkies120</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r326121272-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -862,6 +979,9 @@
     <t>I checked in and went to my room, and it was so bad that I immediately checked back out again. The room had a strong musty odor, as though someone  had been smoking and the management had tried to cover up the odor. The room next door was occupied by what was clearly a homeless transient (moving boxes piled literally to the ceiling, stacks of to-go-food containers) who was extremely noisy. The Wifi did not work at all. The A/C was extremely loud. The only reason I give two stars is because the desk clerk was so very cooperative with allowing me to check out with full refund. It was as though it were a routine process for him....More</t>
   </si>
   <si>
+    <t>ckori</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r311429285-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -880,6 +1000,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Asoka B G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r310949920-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -898,6 +1021,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>marybelle08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r309066314-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -913,6 +1039,9 @@
     <t>Stayed here for one night over Labor Day weekend. The bed and pillows are quite comfortable, and the walls aren't thin, because we couldn't hear anything going on next door, and there were people in the rooms adjacent to ours.It's located in a good spot, so you can get anywhere in Pasadena from the Comfort Inn in not much time. Clean, and no one is pushy or has an attitude. Will definitely stay here again, if in the area.</t>
   </si>
   <si>
+    <t>Darrell C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r306496705-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -931,6 +1060,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Fringe_Gatherer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r306113658-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -949,6 +1081,9 @@
     <t>I have been a regular Pasadena visitor for many years. Depending on who is paying, I've stayed at the Hilton, Westin, Sheraton, the former Ritz Carlton, and a whole spate of budget places. Year after year, I settle on this Comfort Inn as the sweet spot in terms of value for cost. In recent years it has upgraded its rooms so it is now clearly nicer than most hotels in its chain, and a little more expensive, though moderate for the area. The rooms are nicely decorated, the beds are _outstanding_, fridge and microwave, the breakfast has several hot dishes, fruit, and other options. WiFi is of course free, and works well. Experienced staff. Drugstore and supermarket within 1 block. The neighborhood south has miles and miles of neighborhood streets with upscale homes, making a nice jogging route.  The motel fills up, reserve early.More</t>
   </si>
   <si>
+    <t>Alexandra F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r297128850-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -967,6 +1102,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>riccoCarmel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r285081890-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -982,6 +1120,9 @@
     <t>I don’t know where all the high ratings came from. The check in person was really nice. Yes, the room was remodeled and the bed seemed okay. The water pressure was good (but the shower head was too low). That’s about it on the positives. The later desk person wasn’t very friendly, The room was small and still seemed old. The pool was  small, and freezing one night while being merely cold the next, the hot tub was lukewarm one night and too hot the next and the surrounding area and walls were all cement, not attractive at all.</t>
   </si>
   <si>
+    <t>Chrisq2005</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r271693886-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1000,6 +1141,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>David W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r270582906-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1015,6 +1159,9 @@
     <t>We stayed in Pasadena for seven nights and enjoyed the location and freshness of our room.  Convenient to the 210 and not far fromn the 110. Recently remodeled and very clean.  Breakfast was better than average Comfort Inn fare.</t>
   </si>
   <si>
+    <t>Hofman2370</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r261560561-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1033,6 +1180,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>JenniferLuvsTravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r258467658-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1051,6 +1201,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Sandyjpa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r257495406-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1063,6 +1216,9 @@
     <t>I only stayed one night at this place. It is in a great location, near everything. The room was clean and spacious with a very detailed guest directory showing everything in the area.  The buffet breakfast was very good. I would definitely stay there again.</t>
   </si>
   <si>
+    <t>cooldoms</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r246756238-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1099,6 +1255,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>William J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r241350322-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1114,6 +1273,9 @@
     <t>Stayed here 3 nights including Friday and Saturday. Hotel was quiet each night. Good location on main street of Pasadena, numerous stores and restaurants within a few minutes walk. Room was very well furnished and very clean. Everything worked well in the room, nice new TV with plenty of channels. Lots of pillows on a very comfortable King bed I got 3 terrific nights' sleep in. The pool and jacuzzi looked clean and inviting, didn't have time to try them out, sadly. Price I paid is fair considering the quality. Staff was wonderful. Close to Foothills Freeway. Will stay here again when in area.</t>
   </si>
   <si>
+    <t>Cameron M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r218052992-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1156,6 +1318,9 @@
     <t>This is an older hotel on the outside, but the rooms were very clean and nice.  The beds were comfortable.  The shower was built for a person less than 5'4" as you had to duck your head to get your face and hair wet.  The WIFI was inadequate as it kept knocking you off.  The elevator was very slow and being only 3 floors it should have been faster.  It made a lot of noise and you wondered if it was going to open at times.  The breakfast room was very small and the people getting items from the counter had to stand sideways for other people to get by..  The breakfast was the usual scrambled eggs, sausage links and waffles.  The toaster did not work the first day and on both days they kept running out of eggs, or waffle mix or coffee.  When you told the desk about not having one of the items, the clerk response was defensive.  It then would take quite awhile before someone would come in to correct the problem.  The desk clerks indifferent attitude was displayed by the three clerks that I came in contact with or overheard talking to other customers.More</t>
   </si>
   <si>
+    <t>RuthMN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r198680010-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1174,6 +1339,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>KJA64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r189663260-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1195,6 +1363,9 @@
     <t>This property is ideally suited for easy access to the Rose Parade (at least for the last mile).  Getting to the freeway is easy and depending on the usual traffic getting to Hollywood, LA, etc. is very convenient and about 20-30 minutes away.  Major shopping is 5-10 minutes.The room was typical "basic" Comfort Inn.  The toilet is a water conservation design that sounds like a jet engine when you flush!  Shower water pressure did fluctuate but not low enough to be a problem.  The pillows and bed were comfortable, room was clean and quiet.  The choice of TV channels was limited but WiFi was good.  The breakfast food choices were okay but the seating was REALLY cramped and inadequate in table numbers.  The property was "sold out" but I did not have any problem with parking though it does seem limited.More</t>
   </si>
   <si>
+    <t>sandy b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r187845722-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1231,6 +1402,9 @@
     <t>I and my wife stayed in this property for 07 nights during second half of November 2013 on our visit to California from Canada.The room decently appointed, clean, good linen and staff was very friendly. Check in and out supper fast. The lobby was average size but nicely kept. The free breakfast was decent too and the attendant in the B/F room was kind and friendly.Its well located near Pasadena Collage, CalTech, Huntington Library, Pasadena Old Town and Freeway 210.Also it's not too far from beautiful neighborhood like San Marino, South Pasadena, Pasadena, San Gabriel and Arcadia.Los Angeles down Town is about 15 Mile away but Metro Train Station is not far for a 10 mn walk. There were good restaurants, Pharmacies and Department stores like Target, Macy's nearby. The room's carpets needs some cleaning but not too bad.We will have no objection in returning to this hotel again.More</t>
   </si>
   <si>
+    <t>n2history</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r165705483-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1252,6 +1426,9 @@
     <t>This hotel has a low price, but showing signs that better times are behind. Stayed here on two separate occasions in May. (Reservations were made for both trips before the first visit.) The first room was a non-smoking room that had obviously been smoked in. The front desk service was kind enough to put me in another room. Having been in three rooms, I noticed that the rooms have been updated at different times with different types of furnishings. There is some consistency--every TV in the place (rooms and breakfast area) were broken. The desk and table chairs in the rooms were stained in places that one doesn't want to see stains. In one room, the shower curtain rod was broken so that the curtain sagged in the middle and water sprayed all over the floor.The included breakfast was a little more promising, although it was mostly quick-fix items with long shelf life. The front office staff was a mix--most were helpful although not all. Housekeeping was a bright spot, as the rooms were clean and the beds made crisply. Did not try the exercise room or small pool. Parking spaces are tight.This hotel has potential, but a major investment would be needed. 4 stars for the people, 1 star for the hotel.More</t>
   </si>
   <si>
+    <t>sunnySonomaCounty_Ca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r160850107-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1267,6 +1444,9 @@
     <t>A very spacious room with nice comfortable bed and pillows.  They had a very nice breakfast too.  It was most clean and very quiet at night.  It is in a decent area and would feel very safe walking around in the eve. Would definitely recommend this hotel to my friends.</t>
   </si>
   <si>
+    <t>go-kiwi-3805</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r159579856-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1285,6 +1465,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>Kira-nerece</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r148258958-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1303,6 +1486,9 @@
     <t>This place is ok to stay at. It is an older motel with the room opening onto the parking lot or acess balcony. Rooms were very clean and pleasant. They are small like older units are but nice size fridge and microwave. I stayed there 30 days on business. Parking is tight but that is Pasadena as a whole. I had two issues there. On Friday and Saturday nights the place seems to have a lot of traffic and noise, not so during the week. The other I was waiting for a package with closing papers in it and it sat somewhere in the office for 3 days before I got a message that I had a package on a Sunday night, even after I had checked on it.  So the closing was delayed and cost me extra because of it. I would probably go back, as I have stayed at a whole lot worse.  And after all it was VERY clean and the beds were comfortable. More</t>
   </si>
   <si>
+    <t>1ChickenRun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r146266763-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1321,6 +1507,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>GerardMcSweeney</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r143648458-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1337,6 +1526,9 @@
   </si>
   <si>
     <t>October 2012</t>
+  </si>
+  <si>
+    <t>Lifelearners</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r142523797-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
@@ -1361,6 +1553,9 @@
 The staff person checking in was quick but not friendly, but later he told me how to unlatch the pool gate so he was helpful. I found him lounging on a sofa, using his mobile in the lobby so I thought he was a guest at first.  I was glad to see the video feed of the security...It's hard to find affordable lodging in the Los Angeles area for less than $150 that doesn't have some challenge. The Comfort Inn is no exception. The property is a 3 story motel with a tiny unheated pool and a small lukewarm jacuzzi. There are no trees to shield the pool from the neighbors. It feel exposed.Our room had carpet beetles. I know these little guys because they invaded our home and are hard to get rid of, especially if you have carpets. The ones I saw were in the bathroom going from the carpet under the door to the inside of the bathroom wall. They are annoying but not icky like bedbugs.  They like dust which I found everywhere, even on the tub.  I am not sure the last time someone stayed in our room because there was a thin coating of dust on the tub and the floor had little dark specs of this and that.  I couldn't figure it out but since our unit was on the ground floor, it could have blown in from the parking lot.The staff person checking in was quick but not friendly, but later he told me how to unlatch the pool gate so he was helpful. I found him lounging on a sofa, using his mobile in the lobby so I thought he was a guest at first.  I was glad to see the video feed of the security cameras since this spot was on a well traveled street and wasn't fenced. There was too much furniture in our room for us to easily move around.  The bed was comfortable but the rooms need remodeling.  I didn't like the dark wood and carpet and wasn't really sure how clean it all was based on what I saw in the bathroom.We never checked out the breakfast so I can't comment about it. I used to live in the area so I knew the neighborhood.  We went over to Foothill to eat and get gasoline and coffee.  There is nothing within walking distance.For one night it worked...I will pick another place next time.More</t>
   </si>
   <si>
+    <t>anthonymoreno</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r127960592-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1382,6 +1577,9 @@
     <t>read reviews before booking and came here for vacation with my family. checked out other hotels in the are before booking here and must say hotel is very kept up compare to the other hotels and is located in a beautiful area surrounded by beautiful green trees. i have stayed at other comfort inns which offer continental breakfast but this one offers the full breakfast included in the rate. rooms where large enough for me my wife and our daughter. parking lot was a little small but no problem finding parking there plenty of secure parking. was close to all the things we wanted to do. front desk was very friendly. a young man by the name of henry checked us in late at night and recommended several attractions for us to do during the week. some which where more for a younger crowd but the food was good. check out was a young lady which was very informative about the area as well and help us get around. i will definitely  be staying next time we are in town. management seems to be doing a great jobMore</t>
   </si>
   <si>
+    <t>hillretiree</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r127607399-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1403,6 +1601,9 @@
     <t>An older property, three floors, outside corridors, elevator. Room pretty much standard Comfort Inn, but comfortable, well-equipped, completely clean. Free breakfast also standard, but fresh, eggs, bread, cereal, waffles, all the basics. Location is good, though nothing is really walking distance (including the "nearby" Civic Auditorium, and nearby dining options are virtually nonexistent (2 of 3 I checked that were mentioned on the hotel's "nearby restaurants" list were out of business). But everything worked well for me. Bonus points to the staff, who were exceptionally friendly, helpful, and efficient. I've stayed here before (which the staff seemed to know, even though it was years ago) and would choose it again. If you're visiting the Huntington Gardens or Caltech, it's very convenient.More</t>
   </si>
   <si>
+    <t>HandsumMuscle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r118464746-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1424,6 +1625,9 @@
     <t>I'm not usually a big fan of hotels with outdoor corridors because oftentimes they're a little run down. Not this one. The up keep on the grounds was a plus. There were flowers and trees and a freshly paved parking lot. The room was clean. The breakfast was assorted and well stocked. The guy at the front desk let me borrow his screwdriver set so I could work on my computer. One of the best parts was that it's within walking distance to all kinds of things so you don't have to schlep around looking for a bite to eat you can just walk a block or so. I'm giving this place two thumbs up. Not bad at all for an outdoor corridor hotel. It's all about the details and the management of this hotel understands that.More</t>
   </si>
   <si>
+    <t>Kayo22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r94804741-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1442,6 +1646,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>chris1916</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r86886015-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1460,6 +1667,9 @@
     <t>November 2010</t>
   </si>
   <si>
+    <t>jimbofallbrook</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r61370470-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1481,6 +1691,9 @@
     <t>After a fine stay there in December, charged to our Master Card, we were billed on our CC a second time for a stay in March that we did not make. We don't live in that area and haven't been there since early December. Manager (de la Cruz) stone-walled, saying that we were registered and that the charge would hold. Evidently an employee gave a friend or family member a free night at our expense; we haven't stayed anywhere else in that area. Don't care much about the loss of that money but the Credit Card now has to be replaced, which is an inconvenience, to say the least. So, reader, take care. jimboMore</t>
   </si>
   <si>
+    <t>jadect</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r52278414-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1496,6 +1709,9 @@
     <t>Stayed for one night with 2 adult family members and 1 child. The bed sheets and blanket were old and worn out. All 3 of us felt itchy the whole night in bed and weren't able to sleep well. The room had a fridge, a microwave and a safe. It was quiet and looked clean. We would come back again if the bedding is better and were able to at least get a good sleep without the itchiness.</t>
   </si>
   <si>
+    <t>slowee08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r46179007-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1517,6 +1733,9 @@
     <t>I needed to lodge somewhere safe and clean that was located within blocks of my business meeting and chose Comfort Inn Pasadena.  While there, I felt safe and the location was just right.  However, I got the sense that at times it might not be so safe at this location, since at all times, there was a security person in the motel lobby and a security mirror in the breakfast room.  For fun and exercise, I walked to Huntington Botanical Gardens, just past Pasadena City College (where there a decent eateries with outdoor seating, like Johnny Rockets).   Breakfast wasn't memorable.  Let's just say they have one.   They have a computer and printer in the lobby.More</t>
   </si>
   <si>
+    <t>hotelbum</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r37713995-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1538,6 +1757,9 @@
     <t>We really found this hotel very comfortable just like its name. The check-in and check out went quickly and efficiently.  We asked for a quiet non-smoking room far away from traffic and noise and we got one.  It was room 232, even though it was right next to stairway.  However, the stairway was carpeted and was inside so we didn't hear anyone walking up and down the stairs at all.  But if you get a room near the exterior stairway, then you will hear noise. The room was not big with 2 double beds, a table with 2 chairs by the window, a desk and chair, a chest of drawers, small fridge with microwave on top, small sink with good size counter top, blow dryer, coffee maker with coffee/tea, bath soap and face soap, lotion, shampoo &amp; conditioner and good towels enough for 4 people. The beds were comfy with 4 pillows per bed.  The complimentary continental breakfast was enough unless you must have meat. We stayed for 4 nights and the breakfast items were the same but then, we eat the same thing at home everyday anyway.  There were OJ, apple juice, milk(whole &amp; reduced), coffee/tea, hot chocolate, 2 kinds of cereal, bread, english muffins, ,mini croissants, small danishes, bagels, hard boiled eggs, make your own waffles, yogurt, apples and oranges. It was enough to fill us to start our day. However, the breakfast room was small with 4...We really found this hotel very comfortable just like its name. The check-in and check out went quickly and efficiently.  We asked for a quiet non-smoking room far away from traffic and noise and we got one.  It was room 232, even though it was right next to stairway.  However, the stairway was carpeted and was inside so we didn't hear anyone walking up and down the stairs at all.  But if you get a room near the exterior stairway, then you will hear noise. The room was not big with 2 double beds, a table with 2 chairs by the window, a desk and chair, a chest of drawers, small fridge with microwave on top, small sink with good size counter top, blow dryer, coffee maker with coffee/tea, bath soap and face soap, lotion, shampoo &amp; conditioner and good towels enough for 4 people. The beds were comfy with 4 pillows per bed.  The complimentary continental breakfast was enough unless you must have meat. We stayed for 4 nights and the breakfast items were the same but then, we eat the same thing at home everyday anyway.  There were OJ, apple juice, milk(whole &amp; reduced), coffee/tea, hot chocolate, 2 kinds of cereal, bread, english muffins, ,mini croissants, small danishes, bagels, hard boiled eggs, make your own waffles, yogurt, apples and oranges. It was enough to fill us to start our day. However, the breakfast room was small with 4 small tables only.  You can bring your breakfast back to your room with a tray though. Since we were there during the weekdays, we didn't have trouble finding a table but then we went in after 9 am.  Over all, we are very happy with this hotel.  It was quiet even though the parking lot was mostly filled each night. The whole place shows evidence of being well-maintained and the guests are taken care of. Thank you, Comfort Inn.  Keep up the good work.More</t>
   </si>
   <si>
+    <t>chicagoconnie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r35936500-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1556,6 +1778,9 @@
     <t>July 2009</t>
   </si>
   <si>
+    <t>fattima</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r32486716-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1574,6 +1799,9 @@
     <t>May 2009</t>
   </si>
   <si>
+    <t>CaAz-JT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r20292085-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1595,6 +1823,9 @@
     <t>We've stayed here before and were comfortable with staying here again.This is a nice motel that is quiet and relaxing.  It's on Colorado Blvd but 2 miles east of the 'main' downtown of Pasadena...a plus in my book.The rooms were clean, well appointed, and the beds were comfortable.  I like the free wireless internet, although the signal on the second floor was a little weak...but it worked.The continental breakfast is available from 6:00 until 10:30, which is very nice considering I sometimes sleep in on the weekend and it's a drag if they are cleaning up around 9:00.  Cereal, waffles, fruit, danish, hard boiled eggs, juice, coffee, etc. are all available and not dried out or stale.Pricing was very reasonable for a stay in a very nice motel of this stature and we will stay here again.More</t>
   </si>
   <si>
+    <t>CAHeadHunter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r18070703-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1613,6 +1844,9 @@
     <t>July 2008</t>
   </si>
   <si>
+    <t>laughdailyNewYork</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r17910984-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1629,6 +1863,9 @@
   </si>
   <si>
     <t>June 2008</t>
+  </si>
+  <si>
+    <t>ma_mack</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r15358529-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
@@ -1668,6 +1905,9 @@
 Pasadena is a very convenient place to stay if you are planning on visiting Hollywood or Universal Studios. We hardly hit any traffic at all. It's also somewhat convenient to the Santa Monica Pier, however traffic was...Room:Big enough for a family of four that plans to be on the go all day. The decor is a bit outdated and could use some overrall sprucing up but it was clean, which is important.  This Comfort Inn offered free wireless internet access but it was sporadic. The front desk person did not know how we should configure our computer to utilize the wireless but my husband figured it out.  There are two computers in the lobby/front desk if you cannot get your internet working in the room.Pool/Fitness room:The pool was very small, we did not go in. The fitness room was very mediocre. A half hour on the one treadmill is probably all one could tolerate. Breakfast:The free continental breakfast at this hotel is wonderful.  An assortment of beverages, bagels, english muffins, danishes, fruit, yogurt, hard boiled eggs, cereal and a waffle maker!! This saved us a lot of money on breakfast each morning. Not much seating but we managed.Location:Pasadena is a very nice city with lots of restaurants within a 10 minute drive of the hotel (including Olive Garden, Tony Roma's, Souplantation, and Outback). I highly recommend a small pizzeria called Tarantino's! VERY YUMMY!Pasadena is a very convenient place to stay if you are planning on visiting Hollywood or Universal Studios. We hardly hit any traffic at all. It's also somewhat convenient to the Santa Monica Pier, however traffic was heavy and it took us a while to get there.More</t>
   </si>
   <si>
+    <t>Bernard555</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r14824084-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1689,6 +1929,9 @@
     <t>Stayed for three nights and found the room large (by European standards), clean and well equipped. Good bed and clean linens, maybe some of the chairs were a bit dated but overall, this was a good room.  No noise problems, good car parking and the area was good.  Felt pleased to come back at the end of the day.  Breakfast was plentiful with breads, yoghurt, eggs, tea and coffee, juices, cereals, cheese, jam, free newspaper.  Not much seating but you can take it back to your room.  Staff friendly at check-in and check-out.  The safe in the room had a flat battery when I arrived, but they immediately (literally) came and changed it without any fuss.  Microwave and fridge in room, and toiletries supplied.  Supermarket and the charming Old Pasadena not far away in the car.  No problem driving into LA from here.  Overall this was a good solid motel.  TIP: I got a slightly cheaper rate by selecting 'Internet User' as the rate programme on the Comfort Inn website.More</t>
   </si>
   <si>
+    <t>Kirkland_Traveller</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r14326321-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1704,6 +1947,9 @@
     <t>February 2008</t>
   </si>
   <si>
+    <t>Hello_Travelers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r12267123-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1722,6 +1968,9 @@
     <t>December 2007</t>
   </si>
   <si>
+    <t>Traveler1_Austin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r11185410-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1740,6 +1989,9 @@
     <t>October 2007</t>
   </si>
   <si>
+    <t>nyfep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r10073680-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1755,6 +2007,9 @@
     <t>This is a great motel for the money, even compared to hotels which cost much more.  The rooms are large and clean.  The free breakfast is terrific.  There is free internet access in the lobby 24/7.The location is very convenient right off the 210, easy to get to L.A.I highly recommend staying here.</t>
   </si>
   <si>
+    <t>lazydoggie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r6566311-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1773,6 +2028,9 @@
     <t>We Stayed this motel for 3 days,the front desk lady was very friendly.Our room was on 3rd floor,they have elevator so we didn't have any problem to take our luaggage to our room.When we entered our room,the first impression is clean,i found some detail that show they care the bussiness: they have paper plates on the top of the microwave,swivel magnification mirror onthe wall,the bath room was clean too.About the breakfast,I think it's good and lots of choices.The location is very good,short drive to old town pasadena,about this area I'd like to recommend a restrurant, Mi Piace,good atmosphere,don't think it's expensive ,just like olive garden but the quality is beyond that.I had an pumpkin ravioli and it's excellent.I always remind myself what you got is what you paid,this motel is exactly what I should get for about $80/night in this area.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r5331579-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1788,6 +2046,9 @@
     <t>They might as well have just put some linens on the floor - the bed was that hard - I put their ugly decorative pillow on the matress and tried to sleep on them.  I didn't get any sleep.</t>
   </si>
   <si>
+    <t>Audrey R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r5181015-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
   </si>
   <si>
@@ -1816,6 +2077,9 @@
   </si>
   <si>
     <t>Stayed here on 2/5/05, the place was not clean, no working phone in our room.  This is a run down motel with unsavory characters as guests.  We left after 1 night.</t>
+  </si>
+  <si>
+    <t>Foster D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79204-r3020998-Comfort_Inn_Near_Pasadena_Civic_Auditorium-Pasadena_California.html</t>
@@ -2353,43 +2617,47 @@
       <c r="A2" t="n">
         <v>3956</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>8810</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2409,50 +2677,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>3956</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>131273</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -2472,50 +2744,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3956</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>131274</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2533,50 +2809,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3956</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>4438</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -2596,50 +2876,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>3956</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>304</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2653,50 +2937,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>3956</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>131275</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2714,50 +3002,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>3956</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>131276</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2775,50 +3067,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>3956</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>131277</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2832,50 +3128,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>3956</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>131278</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2895,50 +3195,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>3956</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>131279</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2958,50 +3262,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>3956</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>131280</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3021,50 +3329,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>3956</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>131281</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -3084,50 +3396,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>3956</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>131282</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3141,50 +3457,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>3956</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>131283</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3202,50 +3522,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>3956</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>8969</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="J16" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="O16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3259,50 +3583,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>3956</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>131284</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="J17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3322,50 +3650,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>3956</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>131285</v>
+      </c>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="J18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="K18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="O18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3383,50 +3715,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>3956</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>125565</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3446,50 +3782,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>3956</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>131286</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="J20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3507,50 +3847,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>3956</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>131287</v>
+      </c>
+      <c r="C21" t="s">
+        <v>179</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="J21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="K21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="L21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="O21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3568,50 +3912,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>3956</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>131288</v>
+      </c>
+      <c r="C22" t="s">
+        <v>187</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="J22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="K22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3631,50 +3979,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>3956</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>131289</v>
+      </c>
+      <c r="C23" t="s">
+        <v>193</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="J23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="K23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3692,50 +4044,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>3956</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>131290</v>
+      </c>
+      <c r="C24" t="s">
+        <v>200</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="J24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="O24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3753,50 +4109,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>3956</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>131291</v>
+      </c>
+      <c r="C25" t="s">
+        <v>208</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="J25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="K25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3810,50 +4170,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>3956</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>131292</v>
+      </c>
+      <c r="C26" t="s">
+        <v>214</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="J26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="K26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3867,50 +4231,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>3956</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>12976</v>
+      </c>
+      <c r="C27" t="s">
+        <v>221</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="J27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="K27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="O27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3930,50 +4298,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>3956</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>21876</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="J28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="K28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="L28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3991,50 +4363,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>3956</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>4161</v>
+      </c>
+      <c r="C29" t="s">
+        <v>234</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="J29" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="K29" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="L29" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="O29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4052,50 +4428,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>3956</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>131293</v>
+      </c>
+      <c r="C30" t="s">
+        <v>241</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="J30" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="K30" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="O30" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4115,50 +4495,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>3956</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>131294</v>
+      </c>
+      <c r="C31" t="s">
+        <v>247</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="J31" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="K31" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4178,50 +4562,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>3956</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>131295</v>
+      </c>
+      <c r="C32" t="s">
+        <v>253</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="J32" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="K32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="L32" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4241,50 +4629,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>3956</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>131296</v>
+      </c>
+      <c r="C33" t="s">
+        <v>260</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="J33" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="K33" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="L33" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4302,50 +4694,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>3956</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>131297</v>
+      </c>
+      <c r="C34" t="s">
+        <v>266</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="J34" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="K34" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="O34" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4363,50 +4759,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>3956</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>131298</v>
+      </c>
+      <c r="C35" t="s">
+        <v>272</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="J35" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="K35" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="O35" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4424,50 +4824,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>3956</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>131299</v>
+      </c>
+      <c r="C36" t="s">
+        <v>280</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="J36" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="K36" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4483,50 +4887,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>3956</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>131300</v>
+      </c>
+      <c r="C37" t="s">
+        <v>286</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="J37" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="K37" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="L37" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="O37" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4546,50 +4954,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>3956</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>47527</v>
+      </c>
+      <c r="C38" t="s">
+        <v>293</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="J38" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="K38" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="L38" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="O38" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4603,50 +5015,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>3956</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>131301</v>
+      </c>
+      <c r="C39" t="s">
+        <v>300</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="J39" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="K39" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="L39" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="O39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4664,50 +5080,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>3956</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>131302</v>
+      </c>
+      <c r="C40" t="s">
+        <v>307</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="J40" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="K40" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="O40" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4725,50 +5145,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>3956</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>131303</v>
+      </c>
+      <c r="C41" t="s">
+        <v>313</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="J41" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="K41" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="L41" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="O41" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -4788,50 +5212,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>3956</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>131304</v>
+      </c>
+      <c r="C42" t="s">
+        <v>320</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="J42" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="K42" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="L42" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="O42" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4849,50 +5277,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>3956</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>131305</v>
+      </c>
+      <c r="C43" t="s">
+        <v>327</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="J43" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="K43" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="L43" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4906,50 +5338,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>3956</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>102792</v>
+      </c>
+      <c r="C44" t="s">
+        <v>333</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="J44" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="K44" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="L44" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="O44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4967,50 +5403,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>3956</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>131306</v>
+      </c>
+      <c r="C45" t="s">
+        <v>340</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="J45" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="K45" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="L45" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="O45" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -5028,50 +5468,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>3956</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>34440</v>
+      </c>
+      <c r="C46" t="s">
+        <v>347</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="J46" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="K46" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="L46" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5089,50 +5533,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>3956</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>131307</v>
+      </c>
+      <c r="C47" t="s">
+        <v>354</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="J47" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="K47" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="L47" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="O47" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5146,50 +5594,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>3956</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>131308</v>
+      </c>
+      <c r="C48" t="s">
+        <v>360</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="J48" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="K48" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5203,50 +5655,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>3956</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>4279</v>
+      </c>
+      <c r="C49" t="s">
+        <v>367</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>321</v>
+        <v>369</v>
       </c>
       <c r="J49" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="K49" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="L49" t="s">
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5264,50 +5720,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>324</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>3956</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>131309</v>
+      </c>
+      <c r="C50" t="s">
+        <v>373</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="J50" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="K50" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="L50" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="O50" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -5327,50 +5787,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>3956</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>131310</v>
+      </c>
+      <c r="C51" t="s">
+        <v>380</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="J51" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="K51" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="L51" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="O51" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -5390,50 +5854,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>3956</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>131311</v>
+      </c>
+      <c r="C52" t="s">
+        <v>387</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>338</v>
+        <v>389</v>
       </c>
       <c r="J52" t="s">
-        <v>339</v>
+        <v>390</v>
       </c>
       <c r="K52" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L52" t="s">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="O52" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5453,50 +5921,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>340</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>3956</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>131312</v>
+      </c>
+      <c r="C53" t="s">
+        <v>392</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="J53" t="s">
-        <v>343</v>
+        <v>395</v>
       </c>
       <c r="K53" t="s">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="L53" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>346</v>
+        <v>398</v>
       </c>
       <c r="O53" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5510,50 +5982,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>3956</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>131303</v>
+      </c>
+      <c r="C54" t="s">
+        <v>320</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="J54" t="s">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="K54" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="L54" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="O54" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5573,50 +6049,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>3956</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>466</v>
+      </c>
+      <c r="C55" t="s">
+        <v>405</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="J55" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="K55" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="O55" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5636,50 +6116,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>3956</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>52296</v>
+      </c>
+      <c r="C56" t="s">
+        <v>411</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="J56" t="s">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="K56" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="L56" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="O56" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -5699,50 +6183,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>3956</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>8810</v>
+      </c>
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="J57" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="K57" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="L57" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="O57" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -5766,50 +6254,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>3956</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>131313</v>
+      </c>
+      <c r="C58" t="s">
+        <v>426</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="J58" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="K58" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
       <c r="L58" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5833,50 +6325,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>3956</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>131314</v>
+      </c>
+      <c r="C59" t="s">
+        <v>433</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="J59" t="s">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="K59" t="s">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="L59" t="s">
-        <v>382</v>
+        <v>438</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="O59" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5900,50 +6396,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>3956</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>62114</v>
+      </c>
+      <c r="C60" t="s">
+        <v>441</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="J60" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="K60" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="L60" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="O60" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -5967,50 +6467,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>3956</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>131303</v>
+      </c>
+      <c r="C61" t="s">
+        <v>320</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="J61" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="K61" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="L61" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="O61" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6034,50 +6538,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>3956</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>131315</v>
+      </c>
+      <c r="C62" t="s">
+        <v>454</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="J62" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="K62" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="L62" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="O62" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6101,50 +6609,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>403</v>
+        <v>461</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>3956</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>131316</v>
+      </c>
+      <c r="C63" t="s">
+        <v>462</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="J63" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="K63" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
       <c r="L63" t="s">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6158,50 +6670,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>408</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>3956</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>131317</v>
+      </c>
+      <c r="C64" t="s">
+        <v>468</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="J64" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="K64" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="L64" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>414</v>
+        <v>474</v>
       </c>
       <c r="O64" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6225,41 +6741,45 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>3956</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>131318</v>
+      </c>
+      <c r="C65" t="s">
+        <v>475</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>416</v>
+        <v>477</v>
       </c>
       <c r="J65" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
       <c r="K65" t="s">
-        <v>418</v>
+        <v>479</v>
       </c>
       <c r="L65" t="s">
-        <v>419</v>
+        <v>480</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
@@ -6288,50 +6808,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>420</v>
+        <v>481</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>3956</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>131319</v>
+      </c>
+      <c r="C66" t="s">
+        <v>482</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>421</v>
+        <v>483</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>422</v>
+        <v>484</v>
       </c>
       <c r="J66" t="s">
-        <v>423</v>
+        <v>485</v>
       </c>
       <c r="K66" t="s">
-        <v>424</v>
+        <v>486</v>
       </c>
       <c r="L66" t="s">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>426</v>
+        <v>488</v>
       </c>
       <c r="O66" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -6345,50 +6869,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>425</v>
+        <v>487</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>3956</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>131320</v>
+      </c>
+      <c r="C67" t="s">
+        <v>489</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>427</v>
+        <v>490</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="J67" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="K67" t="s">
-        <v>430</v>
+        <v>493</v>
       </c>
       <c r="L67" t="s">
-        <v>431</v>
+        <v>494</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>432</v>
+        <v>495</v>
       </c>
       <c r="O67" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6412,50 +6940,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>431</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>3956</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>131321</v>
+      </c>
+      <c r="C68" t="s">
+        <v>496</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>433</v>
+        <v>497</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="J68" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
       <c r="K68" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="L68" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>432</v>
+        <v>495</v>
       </c>
       <c r="O68" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6479,50 +7011,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>438</v>
+        <v>502</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>3956</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>131322</v>
+      </c>
+      <c r="C69" t="s">
+        <v>503</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>439</v>
+        <v>504</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>440</v>
+        <v>505</v>
       </c>
       <c r="J69" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
       <c r="K69" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="L69" t="s">
-        <v>443</v>
+        <v>508</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="O69" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6546,50 +7082,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>3956</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>131323</v>
+      </c>
+      <c r="C70" t="s">
+        <v>511</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="J70" t="s">
-        <v>448</v>
+        <v>514</v>
       </c>
       <c r="K70" t="s">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="L70" t="s">
-        <v>450</v>
+        <v>516</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>451</v>
+        <v>517</v>
       </c>
       <c r="O70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6613,50 +7153,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>452</v>
+        <v>518</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>3956</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>40802</v>
+      </c>
+      <c r="C71" t="s">
+        <v>519</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="J71" t="s">
-        <v>455</v>
+        <v>522</v>
       </c>
       <c r="K71" t="s">
-        <v>456</v>
+        <v>523</v>
       </c>
       <c r="L71" t="s">
-        <v>457</v>
+        <v>524</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>458</v>
+        <v>525</v>
       </c>
       <c r="O71" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6680,50 +7224,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>459</v>
+        <v>526</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>3956</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>131324</v>
+      </c>
+      <c r="C72" t="s">
+        <v>527</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>461</v>
+        <v>529</v>
       </c>
       <c r="J72" t="s">
-        <v>462</v>
+        <v>530</v>
       </c>
       <c r="K72" t="s">
-        <v>463</v>
+        <v>531</v>
       </c>
       <c r="L72" t="s">
-        <v>464</v>
+        <v>532</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="O72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -6747,50 +7295,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>464</v>
+        <v>532</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>3956</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>131325</v>
+      </c>
+      <c r="C73" t="s">
+        <v>534</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>466</v>
+        <v>535</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>467</v>
+        <v>536</v>
       </c>
       <c r="J73" t="s">
-        <v>468</v>
+        <v>537</v>
       </c>
       <c r="K73" t="s">
-        <v>469</v>
+        <v>538</v>
       </c>
       <c r="L73" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>471</v>
+        <v>540</v>
       </c>
       <c r="O73" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -6814,50 +7366,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>3956</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>131326</v>
+      </c>
+      <c r="C74" t="s">
+        <v>541</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>472</v>
+        <v>542</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>473</v>
+        <v>543</v>
       </c>
       <c r="J74" t="s">
-        <v>474</v>
+        <v>544</v>
       </c>
       <c r="K74" t="s">
-        <v>475</v>
+        <v>545</v>
       </c>
       <c r="L74" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>477</v>
+        <v>547</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -6871,50 +7427,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>478</v>
+        <v>548</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>3956</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>131327</v>
+      </c>
+      <c r="C75" t="s">
+        <v>549</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>479</v>
+        <v>550</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>480</v>
+        <v>551</v>
       </c>
       <c r="J75" t="s">
-        <v>481</v>
+        <v>552</v>
       </c>
       <c r="K75" t="s">
-        <v>482</v>
+        <v>553</v>
       </c>
       <c r="L75" t="s">
-        <v>483</v>
+        <v>554</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>477</v>
+        <v>547</v>
       </c>
       <c r="O75" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -6938,50 +7498,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>483</v>
+        <v>554</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>3956</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>17217</v>
+      </c>
+      <c r="C76" t="s">
+        <v>555</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>484</v>
+        <v>556</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>485</v>
+        <v>557</v>
       </c>
       <c r="J76" t="s">
-        <v>486</v>
+        <v>558</v>
       </c>
       <c r="K76" t="s">
-        <v>487</v>
+        <v>559</v>
       </c>
       <c r="L76" t="s">
-        <v>488</v>
+        <v>560</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>489</v>
+        <v>561</v>
       </c>
       <c r="O76" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7005,50 +7569,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>490</v>
+        <v>562</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>3956</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>131328</v>
+      </c>
+      <c r="C77" t="s">
+        <v>563</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>491</v>
+        <v>564</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>492</v>
+        <v>565</v>
       </c>
       <c r="J77" t="s">
-        <v>493</v>
+        <v>566</v>
       </c>
       <c r="K77" t="s">
-        <v>494</v>
+        <v>567</v>
       </c>
       <c r="L77" t="s">
-        <v>495</v>
+        <v>568</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>496</v>
+        <v>569</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7072,50 +7640,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>497</v>
+        <v>570</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>3956</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>131329</v>
+      </c>
+      <c r="C78" t="s">
+        <v>571</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>499</v>
+        <v>573</v>
       </c>
       <c r="J78" t="s">
-        <v>500</v>
+        <v>574</v>
       </c>
       <c r="K78" t="s">
-        <v>501</v>
+        <v>575</v>
       </c>
       <c r="L78" t="s">
-        <v>502</v>
+        <v>576</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>503</v>
+        <v>577</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7139,50 +7711,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>502</v>
+        <v>576</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>3956</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>131330</v>
+      </c>
+      <c r="C79" t="s">
+        <v>578</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>504</v>
+        <v>579</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>505</v>
+        <v>580</v>
       </c>
       <c r="J79" t="s">
-        <v>506</v>
+        <v>581</v>
       </c>
       <c r="K79" t="s">
-        <v>507</v>
+        <v>582</v>
       </c>
       <c r="L79" t="s">
-        <v>508</v>
+        <v>583</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>509</v>
+        <v>584</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7206,50 +7782,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>508</v>
+        <v>583</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>3956</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>131331</v>
+      </c>
+      <c r="C80" t="s">
+        <v>585</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>510</v>
+        <v>586</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>511</v>
+        <v>587</v>
       </c>
       <c r="J80" t="s">
-        <v>512</v>
+        <v>588</v>
       </c>
       <c r="K80" t="s">
-        <v>513</v>
+        <v>589</v>
       </c>
       <c r="L80" t="s">
-        <v>514</v>
+        <v>590</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>515</v>
+        <v>591</v>
       </c>
       <c r="O80" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7273,50 +7853,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>516</v>
+        <v>592</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>3956</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>131332</v>
+      </c>
+      <c r="C81" t="s">
+        <v>593</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>517</v>
+        <v>594</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>518</v>
+        <v>595</v>
       </c>
       <c r="J81" t="s">
-        <v>519</v>
+        <v>596</v>
       </c>
       <c r="K81" t="s">
-        <v>520</v>
+        <v>597</v>
       </c>
       <c r="L81" t="s">
-        <v>521</v>
+        <v>598</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>522</v>
+        <v>599</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -7338,50 +7922,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>521</v>
+        <v>598</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>3956</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>131333</v>
+      </c>
+      <c r="C82" t="s">
+        <v>600</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>524</v>
+        <v>602</v>
       </c>
       <c r="J82" t="s">
-        <v>525</v>
+        <v>603</v>
       </c>
       <c r="K82" t="s">
-        <v>526</v>
+        <v>604</v>
       </c>
       <c r="L82" t="s">
-        <v>527</v>
+        <v>605</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>528</v>
+        <v>606</v>
       </c>
       <c r="O82" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -7405,50 +7993,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>527</v>
+        <v>605</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>3956</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>131334</v>
+      </c>
+      <c r="C83" t="s">
+        <v>607</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>529</v>
+        <v>608</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>530</v>
+        <v>609</v>
       </c>
       <c r="J83" t="s">
-        <v>531</v>
+        <v>610</v>
       </c>
       <c r="K83" t="s">
-        <v>532</v>
+        <v>611</v>
       </c>
       <c r="L83" t="s">
-        <v>533</v>
+        <v>612</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>534</v>
+        <v>613</v>
       </c>
       <c r="O83" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -7472,50 +8064,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>535</v>
+        <v>614</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>3956</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>131335</v>
+      </c>
+      <c r="C84" t="s">
+        <v>615</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>536</v>
+        <v>616</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>537</v>
+        <v>617</v>
       </c>
       <c r="J84" t="s">
-        <v>538</v>
+        <v>618</v>
       </c>
       <c r="K84" t="s">
-        <v>539</v>
+        <v>619</v>
       </c>
       <c r="L84" t="s">
-        <v>540</v>
+        <v>620</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>541</v>
+        <v>621</v>
       </c>
       <c r="O84" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -7539,50 +8135,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>542</v>
+        <v>622</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>3956</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>131336</v>
+      </c>
+      <c r="C85" t="s">
+        <v>623</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>543</v>
+        <v>624</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>544</v>
+        <v>625</v>
       </c>
       <c r="J85" t="s">
-        <v>545</v>
+        <v>626</v>
       </c>
       <c r="K85" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="L85" t="s">
-        <v>546</v>
+        <v>627</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>547</v>
+        <v>628</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -7606,50 +8206,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>546</v>
+        <v>627</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>3956</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>131337</v>
+      </c>
+      <c r="C86" t="s">
+        <v>629</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>548</v>
+        <v>630</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>549</v>
+        <v>631</v>
       </c>
       <c r="J86" t="s">
-        <v>550</v>
+        <v>632</v>
       </c>
       <c r="K86" t="s">
-        <v>551</v>
+        <v>633</v>
       </c>
       <c r="L86" t="s">
-        <v>552</v>
+        <v>634</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>553</v>
+        <v>635</v>
       </c>
       <c r="O86" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P86" t="n">
         <v>3</v>
@@ -7673,50 +8277,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>552</v>
+        <v>634</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>3956</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>131338</v>
+      </c>
+      <c r="C87" t="s">
+        <v>636</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>554</v>
+        <v>637</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>555</v>
+        <v>638</v>
       </c>
       <c r="J87" t="s">
-        <v>556</v>
+        <v>639</v>
       </c>
       <c r="K87" t="s">
-        <v>557</v>
+        <v>640</v>
       </c>
       <c r="L87" t="s">
-        <v>558</v>
+        <v>641</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>559</v>
+        <v>642</v>
       </c>
       <c r="O87" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -7740,50 +8348,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>558</v>
+        <v>641</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>3956</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>131339</v>
+      </c>
+      <c r="C88" t="s">
+        <v>643</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>560</v>
+        <v>644</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>561</v>
+        <v>645</v>
       </c>
       <c r="J88" t="s">
-        <v>562</v>
+        <v>646</v>
       </c>
       <c r="K88" t="s">
-        <v>563</v>
+        <v>647</v>
       </c>
       <c r="L88" t="s">
-        <v>564</v>
+        <v>648</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>559</v>
+        <v>642</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -7807,41 +8419,45 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>564</v>
+        <v>648</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>3956</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>131340</v>
+      </c>
+      <c r="C89" t="s">
+        <v>649</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>565</v>
+        <v>650</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>566</v>
+        <v>651</v>
       </c>
       <c r="J89" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="K89" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
       <c r="L89" t="s">
-        <v>569</v>
+        <v>654</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
@@ -7870,41 +8486,45 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>570</v>
+        <v>655</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>3956</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>656</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>571</v>
+        <v>657</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>572</v>
+        <v>658</v>
       </c>
       <c r="J90" t="s">
-        <v>573</v>
+        <v>659</v>
       </c>
       <c r="K90" t="s">
-        <v>574</v>
+        <v>660</v>
       </c>
       <c r="L90" t="s">
-        <v>575</v>
+        <v>661</v>
       </c>
       <c r="M90" t="n">
         <v>1</v>
@@ -7923,41 +8543,45 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>575</v>
+        <v>661</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>3956</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>131341</v>
+      </c>
+      <c r="C91" t="s">
+        <v>662</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>576</v>
+        <v>663</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>577</v>
+        <v>664</v>
       </c>
       <c r="J91" t="s">
-        <v>578</v>
+        <v>665</v>
       </c>
       <c r="K91" t="s">
-        <v>579</v>
+        <v>666</v>
       </c>
       <c r="L91" t="s">
-        <v>580</v>
+        <v>667</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
@@ -7976,41 +8600,45 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>580</v>
+        <v>667</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>3956</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>656</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>581</v>
+        <v>668</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>582</v>
+        <v>669</v>
       </c>
       <c r="J92" t="s">
-        <v>583</v>
+        <v>670</v>
       </c>
       <c r="K92" t="s">
-        <v>584</v>
+        <v>671</v>
       </c>
       <c r="L92" t="s">
-        <v>585</v>
+        <v>672</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
@@ -8029,50 +8657,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>585</v>
+        <v>672</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>3956</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>131342</v>
+      </c>
+      <c r="C93" t="s">
+        <v>673</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>586</v>
+        <v>674</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>587</v>
+        <v>675</v>
       </c>
       <c r="J93" t="s">
-        <v>588</v>
+        <v>676</v>
       </c>
       <c r="K93" t="s">
-        <v>589</v>
+        <v>677</v>
       </c>
       <c r="L93" t="s">
-        <v>590</v>
+        <v>678</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>591</v>
+        <v>679</v>
       </c>
       <c r="O93" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8094,41 +8726,45 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>590</v>
+        <v>678</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>3956</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>656</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>592</v>
+        <v>680</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>593</v>
+        <v>681</v>
       </c>
       <c r="J94" t="s">
-        <v>594</v>
+        <v>682</v>
       </c>
       <c r="K94" t="s">
-        <v>595</v>
+        <v>683</v>
       </c>
       <c r="L94" t="s">
-        <v>596</v>
+        <v>684</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
@@ -8147,7 +8783,7 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>596</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_129.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_129.xlsx
@@ -2685,7 +2685,7 @@
         <v>3956</v>
       </c>
       <c r="B3" t="n">
-        <v>131273</v>
+        <v>162032</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -2752,7 +2752,7 @@
         <v>3956</v>
       </c>
       <c r="B4" t="n">
-        <v>131274</v>
+        <v>162033</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -2945,7 +2945,7 @@
         <v>3956</v>
       </c>
       <c r="B7" t="n">
-        <v>131275</v>
+        <v>162034</v>
       </c>
       <c r="C7" t="s">
         <v>87</v>
@@ -3010,7 +3010,7 @@
         <v>3956</v>
       </c>
       <c r="B8" t="n">
-        <v>131276</v>
+        <v>162035</v>
       </c>
       <c r="C8" t="s">
         <v>95</v>
@@ -3075,7 +3075,7 @@
         <v>3956</v>
       </c>
       <c r="B9" t="n">
-        <v>131277</v>
+        <v>162036</v>
       </c>
       <c r="C9" t="s">
         <v>101</v>
@@ -3136,7 +3136,7 @@
         <v>3956</v>
       </c>
       <c r="B10" t="n">
-        <v>131278</v>
+        <v>162037</v>
       </c>
       <c r="C10" t="s">
         <v>107</v>
@@ -3203,7 +3203,7 @@
         <v>3956</v>
       </c>
       <c r="B11" t="n">
-        <v>131279</v>
+        <v>162038</v>
       </c>
       <c r="C11" t="s">
         <v>114</v>
@@ -3270,7 +3270,7 @@
         <v>3956</v>
       </c>
       <c r="B12" t="n">
-        <v>131280</v>
+        <v>162039</v>
       </c>
       <c r="C12" t="s">
         <v>121</v>
@@ -3337,7 +3337,7 @@
         <v>3956</v>
       </c>
       <c r="B13" t="n">
-        <v>131281</v>
+        <v>162040</v>
       </c>
       <c r="C13" t="s">
         <v>129</v>
@@ -3404,7 +3404,7 @@
         <v>3956</v>
       </c>
       <c r="B14" t="n">
-        <v>131282</v>
+        <v>162041</v>
       </c>
       <c r="C14" t="s">
         <v>134</v>
@@ -3465,7 +3465,7 @@
         <v>3956</v>
       </c>
       <c r="B15" t="n">
-        <v>131283</v>
+        <v>162042</v>
       </c>
       <c r="C15" t="s">
         <v>141</v>
@@ -3591,7 +3591,7 @@
         <v>3956</v>
       </c>
       <c r="B17" t="n">
-        <v>131284</v>
+        <v>162043</v>
       </c>
       <c r="C17" t="s">
         <v>151</v>
@@ -3658,7 +3658,7 @@
         <v>3956</v>
       </c>
       <c r="B18" t="n">
-        <v>131285</v>
+        <v>162044</v>
       </c>
       <c r="C18" t="s">
         <v>159</v>
@@ -3790,7 +3790,7 @@
         <v>3956</v>
       </c>
       <c r="B20" t="n">
-        <v>131286</v>
+        <v>162045</v>
       </c>
       <c r="C20" t="s">
         <v>172</v>
@@ -3855,7 +3855,7 @@
         <v>3956</v>
       </c>
       <c r="B21" t="n">
-        <v>131287</v>
+        <v>162046</v>
       </c>
       <c r="C21" t="s">
         <v>179</v>
@@ -3920,7 +3920,7 @@
         <v>3956</v>
       </c>
       <c r="B22" t="n">
-        <v>131288</v>
+        <v>162047</v>
       </c>
       <c r="C22" t="s">
         <v>187</v>
@@ -3987,7 +3987,7 @@
         <v>3956</v>
       </c>
       <c r="B23" t="n">
-        <v>131289</v>
+        <v>162048</v>
       </c>
       <c r="C23" t="s">
         <v>193</v>
@@ -4052,7 +4052,7 @@
         <v>3956</v>
       </c>
       <c r="B24" t="n">
-        <v>131290</v>
+        <v>162049</v>
       </c>
       <c r="C24" t="s">
         <v>200</v>
@@ -4117,7 +4117,7 @@
         <v>3956</v>
       </c>
       <c r="B25" t="n">
-        <v>131291</v>
+        <v>162050</v>
       </c>
       <c r="C25" t="s">
         <v>208</v>
@@ -4178,7 +4178,7 @@
         <v>3956</v>
       </c>
       <c r="B26" t="n">
-        <v>131292</v>
+        <v>162051</v>
       </c>
       <c r="C26" t="s">
         <v>214</v>
@@ -4436,7 +4436,7 @@
         <v>3956</v>
       </c>
       <c r="B30" t="n">
-        <v>131293</v>
+        <v>162052</v>
       </c>
       <c r="C30" t="s">
         <v>241</v>
@@ -4503,7 +4503,7 @@
         <v>3956</v>
       </c>
       <c r="B31" t="n">
-        <v>131294</v>
+        <v>162053</v>
       </c>
       <c r="C31" t="s">
         <v>247</v>
@@ -4570,7 +4570,7 @@
         <v>3956</v>
       </c>
       <c r="B32" t="n">
-        <v>131295</v>
+        <v>162054</v>
       </c>
       <c r="C32" t="s">
         <v>253</v>
@@ -4637,7 +4637,7 @@
         <v>3956</v>
       </c>
       <c r="B33" t="n">
-        <v>131296</v>
+        <v>162055</v>
       </c>
       <c r="C33" t="s">
         <v>260</v>
@@ -4702,7 +4702,7 @@
         <v>3956</v>
       </c>
       <c r="B34" t="n">
-        <v>131297</v>
+        <v>162056</v>
       </c>
       <c r="C34" t="s">
         <v>266</v>
@@ -4767,7 +4767,7 @@
         <v>3956</v>
       </c>
       <c r="B35" t="n">
-        <v>131298</v>
+        <v>162057</v>
       </c>
       <c r="C35" t="s">
         <v>272</v>
@@ -4832,7 +4832,7 @@
         <v>3956</v>
       </c>
       <c r="B36" t="n">
-        <v>131299</v>
+        <v>162058</v>
       </c>
       <c r="C36" t="s">
         <v>280</v>
@@ -4895,7 +4895,7 @@
         <v>3956</v>
       </c>
       <c r="B37" t="n">
-        <v>131300</v>
+        <v>162059</v>
       </c>
       <c r="C37" t="s">
         <v>286</v>
@@ -5023,7 +5023,7 @@
         <v>3956</v>
       </c>
       <c r="B39" t="n">
-        <v>131301</v>
+        <v>162060</v>
       </c>
       <c r="C39" t="s">
         <v>300</v>
@@ -5088,7 +5088,7 @@
         <v>3956</v>
       </c>
       <c r="B40" t="n">
-        <v>131302</v>
+        <v>162061</v>
       </c>
       <c r="C40" t="s">
         <v>307</v>
@@ -5153,7 +5153,7 @@
         <v>3956</v>
       </c>
       <c r="B41" t="n">
-        <v>131303</v>
+        <v>162062</v>
       </c>
       <c r="C41" t="s">
         <v>313</v>
@@ -5220,7 +5220,7 @@
         <v>3956</v>
       </c>
       <c r="B42" t="n">
-        <v>131304</v>
+        <v>131284</v>
       </c>
       <c r="C42" t="s">
         <v>320</v>
@@ -5285,7 +5285,7 @@
         <v>3956</v>
       </c>
       <c r="B43" t="n">
-        <v>131305</v>
+        <v>162063</v>
       </c>
       <c r="C43" t="s">
         <v>327</v>
@@ -5411,7 +5411,7 @@
         <v>3956</v>
       </c>
       <c r="B45" t="n">
-        <v>131306</v>
+        <v>162064</v>
       </c>
       <c r="C45" t="s">
         <v>340</v>
@@ -5541,7 +5541,7 @@
         <v>3956</v>
       </c>
       <c r="B47" t="n">
-        <v>131307</v>
+        <v>162065</v>
       </c>
       <c r="C47" t="s">
         <v>354</v>
@@ -5602,7 +5602,7 @@
         <v>3956</v>
       </c>
       <c r="B48" t="n">
-        <v>131308</v>
+        <v>162066</v>
       </c>
       <c r="C48" t="s">
         <v>360</v>
@@ -5728,7 +5728,7 @@
         <v>3956</v>
       </c>
       <c r="B50" t="n">
-        <v>131309</v>
+        <v>162067</v>
       </c>
       <c r="C50" t="s">
         <v>373</v>
@@ -5795,7 +5795,7 @@
         <v>3956</v>
       </c>
       <c r="B51" t="n">
-        <v>131310</v>
+        <v>162068</v>
       </c>
       <c r="C51" t="s">
         <v>380</v>
@@ -5862,7 +5862,7 @@
         <v>3956</v>
       </c>
       <c r="B52" t="n">
-        <v>131311</v>
+        <v>162069</v>
       </c>
       <c r="C52" t="s">
         <v>387</v>
@@ -5929,7 +5929,7 @@
         <v>3956</v>
       </c>
       <c r="B53" t="n">
-        <v>131312</v>
+        <v>162070</v>
       </c>
       <c r="C53" t="s">
         <v>392</v>
@@ -5990,7 +5990,7 @@
         <v>3956</v>
       </c>
       <c r="B54" t="n">
-        <v>131303</v>
+        <v>131284</v>
       </c>
       <c r="C54" t="s">
         <v>320</v>
@@ -6262,7 +6262,7 @@
         <v>3956</v>
       </c>
       <c r="B58" t="n">
-        <v>131313</v>
+        <v>162071</v>
       </c>
       <c r="C58" t="s">
         <v>426</v>
@@ -6333,7 +6333,7 @@
         <v>3956</v>
       </c>
       <c r="B59" t="n">
-        <v>131314</v>
+        <v>162072</v>
       </c>
       <c r="C59" t="s">
         <v>433</v>
@@ -6475,7 +6475,7 @@
         <v>3956</v>
       </c>
       <c r="B61" t="n">
-        <v>131303</v>
+        <v>131284</v>
       </c>
       <c r="C61" t="s">
         <v>320</v>
@@ -6546,7 +6546,7 @@
         <v>3956</v>
       </c>
       <c r="B62" t="n">
-        <v>131315</v>
+        <v>162073</v>
       </c>
       <c r="C62" t="s">
         <v>454</v>
@@ -6617,7 +6617,7 @@
         <v>3956</v>
       </c>
       <c r="B63" t="n">
-        <v>131316</v>
+        <v>162074</v>
       </c>
       <c r="C63" t="s">
         <v>462</v>
@@ -6678,7 +6678,7 @@
         <v>3956</v>
       </c>
       <c r="B64" t="n">
-        <v>131317</v>
+        <v>162075</v>
       </c>
       <c r="C64" t="s">
         <v>468</v>
@@ -6749,7 +6749,7 @@
         <v>3956</v>
       </c>
       <c r="B65" t="n">
-        <v>131318</v>
+        <v>162076</v>
       </c>
       <c r="C65" t="s">
         <v>475</v>
@@ -6816,7 +6816,7 @@
         <v>3956</v>
       </c>
       <c r="B66" t="n">
-        <v>131319</v>
+        <v>162077</v>
       </c>
       <c r="C66" t="s">
         <v>482</v>
@@ -6877,7 +6877,7 @@
         <v>3956</v>
       </c>
       <c r="B67" t="n">
-        <v>131320</v>
+        <v>162078</v>
       </c>
       <c r="C67" t="s">
         <v>489</v>
@@ -6948,7 +6948,7 @@
         <v>3956</v>
       </c>
       <c r="B68" t="n">
-        <v>131321</v>
+        <v>162079</v>
       </c>
       <c r="C68" t="s">
         <v>496</v>
@@ -7019,7 +7019,7 @@
         <v>3956</v>
       </c>
       <c r="B69" t="n">
-        <v>131322</v>
+        <v>162080</v>
       </c>
       <c r="C69" t="s">
         <v>503</v>
@@ -7090,7 +7090,7 @@
         <v>3956</v>
       </c>
       <c r="B70" t="n">
-        <v>131323</v>
+        <v>162081</v>
       </c>
       <c r="C70" t="s">
         <v>511</v>
@@ -7232,7 +7232,7 @@
         <v>3956</v>
       </c>
       <c r="B72" t="n">
-        <v>131324</v>
+        <v>162082</v>
       </c>
       <c r="C72" t="s">
         <v>527</v>
@@ -7303,7 +7303,7 @@
         <v>3956</v>
       </c>
       <c r="B73" t="n">
-        <v>131325</v>
+        <v>162083</v>
       </c>
       <c r="C73" t="s">
         <v>534</v>
@@ -7374,7 +7374,7 @@
         <v>3956</v>
       </c>
       <c r="B74" t="n">
-        <v>131326</v>
+        <v>162084</v>
       </c>
       <c r="C74" t="s">
         <v>541</v>
@@ -7435,7 +7435,7 @@
         <v>3956</v>
       </c>
       <c r="B75" t="n">
-        <v>131327</v>
+        <v>162085</v>
       </c>
       <c r="C75" t="s">
         <v>549</v>
@@ -7577,7 +7577,7 @@
         <v>3956</v>
       </c>
       <c r="B77" t="n">
-        <v>131328</v>
+        <v>162086</v>
       </c>
       <c r="C77" t="s">
         <v>563</v>
@@ -7648,7 +7648,7 @@
         <v>3956</v>
       </c>
       <c r="B78" t="n">
-        <v>131329</v>
+        <v>162087</v>
       </c>
       <c r="C78" t="s">
         <v>571</v>
@@ -7719,7 +7719,7 @@
         <v>3956</v>
       </c>
       <c r="B79" t="n">
-        <v>131330</v>
+        <v>162088</v>
       </c>
       <c r="C79" t="s">
         <v>578</v>
@@ -7790,7 +7790,7 @@
         <v>3956</v>
       </c>
       <c r="B80" t="n">
-        <v>131331</v>
+        <v>162089</v>
       </c>
       <c r="C80" t="s">
         <v>585</v>
@@ -7861,7 +7861,7 @@
         <v>3956</v>
       </c>
       <c r="B81" t="n">
-        <v>131332</v>
+        <v>149387</v>
       </c>
       <c r="C81" t="s">
         <v>593</v>
@@ -7930,7 +7930,7 @@
         <v>3956</v>
       </c>
       <c r="B82" t="n">
-        <v>131333</v>
+        <v>162090</v>
       </c>
       <c r="C82" t="s">
         <v>600</v>
@@ -8001,7 +8001,7 @@
         <v>3956</v>
       </c>
       <c r="B83" t="n">
-        <v>131334</v>
+        <v>162091</v>
       </c>
       <c r="C83" t="s">
         <v>607</v>
@@ -8072,7 +8072,7 @@
         <v>3956</v>
       </c>
       <c r="B84" t="n">
-        <v>131335</v>
+        <v>162092</v>
       </c>
       <c r="C84" t="s">
         <v>615</v>
@@ -8143,7 +8143,7 @@
         <v>3956</v>
       </c>
       <c r="B85" t="n">
-        <v>131336</v>
+        <v>162093</v>
       </c>
       <c r="C85" t="s">
         <v>623</v>
@@ -8214,7 +8214,7 @@
         <v>3956</v>
       </c>
       <c r="B86" t="n">
-        <v>131337</v>
+        <v>162094</v>
       </c>
       <c r="C86" t="s">
         <v>629</v>
@@ -8285,7 +8285,7 @@
         <v>3956</v>
       </c>
       <c r="B87" t="n">
-        <v>131338</v>
+        <v>162095</v>
       </c>
       <c r="C87" t="s">
         <v>636</v>
@@ -8356,7 +8356,7 @@
         <v>3956</v>
       </c>
       <c r="B88" t="n">
-        <v>131339</v>
+        <v>162096</v>
       </c>
       <c r="C88" t="s">
         <v>643</v>
@@ -8427,7 +8427,7 @@
         <v>3956</v>
       </c>
       <c r="B89" t="n">
-        <v>131340</v>
+        <v>162097</v>
       </c>
       <c r="C89" t="s">
         <v>649</v>
@@ -8551,7 +8551,7 @@
         <v>3956</v>
       </c>
       <c r="B91" t="n">
-        <v>131341</v>
+        <v>162098</v>
       </c>
       <c r="C91" t="s">
         <v>662</v>
@@ -8665,7 +8665,7 @@
         <v>3956</v>
       </c>
       <c r="B93" t="n">
-        <v>131342</v>
+        <v>162099</v>
       </c>
       <c r="C93" t="s">
         <v>673</v>
